--- a/Projects/SANOFIRU/Data/Template.xlsx
+++ b/Projects/SANOFIRU/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$31</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
@@ -42,6 +42,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
@@ -63,6 +64,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$A$2:$H$12</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
@@ -73,28 +75,29 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$31</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$J$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$J$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$31</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$J$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$J$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -106,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="141">
   <si>
     <t>KPI Name</t>
   </si>
@@ -163,6 +166,9 @@
   </si>
   <si>
     <t>Secondary Shelf</t>
+  </si>
+  <si>
+    <t>Product Minimum Facings Secondary</t>
   </si>
   <si>
     <t>MSL Compliance</t>
@@ -733,7 +739,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,6 +804,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC5E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1007,7 +1025,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1360,6 +1378,30 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1429,7 +1471,7 @@
       <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1461,15 +1503,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>974880</xdr:colOff>
+      <xdr:colOff>1001880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>283320</xdr:rowOff>
+      <xdr:rowOff>274320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>975240</xdr:colOff>
+      <xdr:colOff>1002240</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>283680</xdr:rowOff>
+      <xdr:rowOff>274680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1482,7 +1524,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4079880" y="1483920"/>
+          <a:off x="4106880" y="1474920"/>
           <a:ext cx="360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1498,15 +1540,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>888120</xdr:colOff>
+      <xdr:colOff>915120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>270720</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>888480</xdr:colOff>
+      <xdr:colOff>915480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>387360</xdr:rowOff>
+      <xdr:rowOff>378000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1519,8 +1561,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3993120" y="1471320"/>
-          <a:ext cx="360" cy="116640"/>
+          <a:off x="4020120" y="1462320"/>
+          <a:ext cx="360" cy="116280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1540,15 +1582,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1972800</xdr:colOff>
+      <xdr:colOff>1999800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>293400</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1974240</xdr:colOff>
+      <xdr:colOff>2000880</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>483480</xdr:rowOff>
+      <xdr:rowOff>474120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1561,8 +1603,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4134960" y="910440"/>
-          <a:ext cx="1440" cy="190080"/>
+          <a:off x="4180680" y="901440"/>
+          <a:ext cx="1080" cy="189720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1588,18 +1630,18 @@
   </sheetPr>
   <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="H3:H27 C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.497975708502"/>
   </cols>
   <sheetData>
@@ -1710,96 +1752,116 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="15"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="11"/>
       <c r="G9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="20" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1820,19 +1882,19 @@
   </sheetPr>
   <dimension ref="1:27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3:H27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="true" max="6" min="6" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
@@ -1845,7 +1907,7 @@
       <c r="E1" s="24"/>
       <c r="F1" s="25"/>
       <c r="G1" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
@@ -1870,90 +1932,90 @@
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W2" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="33" t="n">
         <v>3582910078913</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="36" t="n">
@@ -2013,19 +2075,19 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="33" t="n">
         <v>3582910077305</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="36" t="n">
@@ -2085,19 +2147,19 @@
     </row>
     <row r="5" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="33" t="n">
         <v>8901083060122</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="36" t="n">
@@ -2159,19 +2221,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="33" t="n">
         <v>8901083060139</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="36" t="n">
@@ -2231,19 +2293,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="33" t="n">
         <v>8901083060115</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="36" t="n">
@@ -2303,19 +2365,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="33" t="n">
         <v>3582910072218</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="36" t="n">
@@ -2375,19 +2437,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="33" t="n">
         <v>3582910075660</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="36" t="n">
@@ -2447,19 +2509,19 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="33" t="n">
         <v>9006968001890</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="36" t="n">
@@ -2519,19 +2581,19 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="42" t="n">
         <v>9006968004082</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F11" s="44"/>
       <c r="G11" s="45" t="n">
@@ -2591,19 +2653,19 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="42" t="n">
         <v>9006968011882</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="45" t="n">
@@ -2663,19 +2725,19 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="42" t="n">
         <v>9006968011479</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="45" t="n">
@@ -2735,19 +2797,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="42" t="n">
         <v>9006968010793</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="44"/>
       <c r="G14" s="45" t="n">
@@ -2807,19 +2869,19 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>3582910070252</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="36" t="n">
@@ -2879,19 +2941,19 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="33" t="n">
         <v>3582910026723</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="47"/>
       <c r="G16" s="36" t="n">
@@ -2951,19 +3013,19 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="33" t="n">
         <v>3582910071259</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="36" t="n">
@@ -3023,19 +3085,19 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="33" t="n">
         <v>7896070607590</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="36" t="n">
@@ -3095,19 +3157,19 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" s="33" t="n">
         <v>7896070607606</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" s="47"/>
       <c r="G19" s="36" t="n">
@@ -3167,19 +3229,19 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="33" t="n">
         <v>5997086103280</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F20" s="47"/>
       <c r="G20" s="36" t="n">
@@ -3239,19 +3301,19 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="33" t="n">
         <v>3582910060758</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" s="47"/>
       <c r="G21" s="36" t="n">
@@ -3311,19 +3373,19 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="33" t="n">
         <v>5997086105055</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="36" t="n">
@@ -3383,19 +3445,19 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" s="33" t="n">
         <v>3582910062172</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="36" t="n">
@@ -3455,19 +3517,19 @@
     </row>
     <row r="24" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="36" t="n">
@@ -3527,19 +3589,19 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" s="33" t="n">
         <v>9006968004532</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F25" s="47"/>
       <c r="G25" s="36" t="n">
@@ -3599,19 +3661,19 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" s="33" t="n">
         <v>8594739055209</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F26" s="47"/>
       <c r="G26" s="36" t="n">
@@ -3671,19 +3733,19 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" s="33" t="n">
         <v>8594739055421</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F27" s="47"/>
       <c r="G27" s="36" t="n">
@@ -3771,16 +3833,16 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="1" sqref="H3:H27 E25"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
@@ -3793,7 +3855,7 @@
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -3818,75 +3880,75 @@
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W2" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -3913,7 +3975,7 @@
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
@@ -3940,7 +4002,7 @@
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="50"/>
       <c r="C5" s="50"/>
@@ -3967,7 +4029,7 @@
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
@@ -3994,7 +4056,7 @@
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
@@ -4021,7 +4083,7 @@
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
@@ -4048,7 +4110,7 @@
     </row>
     <row r="9" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
@@ -4075,7 +4137,7 @@
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="50"/>
@@ -4102,7 +4164,7 @@
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="50"/>
@@ -4129,7 +4191,7 @@
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
@@ -4179,7 +4241,7 @@
   <dimension ref="A1:AMH21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3:H27"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4187,8 +4249,8 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="52" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="52" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="52" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="52" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="52" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="52" width="6"/>
@@ -4204,7 +4266,7 @@
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
@@ -5227,73 +5289,73 @@
         <v>0</v>
       </c>
       <c r="B2" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" s="48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W2" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
@@ -6299,16 +6361,16 @@
         <v>14</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F3" s="58" t="n">
         <v>1</v>
@@ -7371,16 +7433,16 @@
         <v>14</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F4" s="58" t="n">
         <v>1</v>
@@ -8443,16 +8505,16 @@
         <v>14</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F5" s="58" t="n">
         <v>1</v>
@@ -8517,16 +8579,16 @@
         <v>14</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F6" s="58" t="n">
         <v>1</v>
@@ -8591,13 +8653,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" s="57" t="n">
         <v>3582910075660</v>
@@ -8665,13 +8727,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" s="57" t="n">
         <v>9006968001890</v>
@@ -8739,16 +8801,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F9" s="58" t="n">
         <v>1</v>
@@ -8813,16 +8875,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F10" s="58" t="n">
         <v>1</v>
@@ -8887,13 +8949,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="57" t="n">
         <v>9006968011882</v>
@@ -8961,16 +9023,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F12" s="58" t="n">
         <v>1</v>
@@ -9035,16 +9097,16 @@
         <v>14</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F13" s="58" t="n">
         <v>1</v>
@@ -9109,16 +9171,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F14" s="58" t="n">
         <v>1</v>
@@ -9183,16 +9245,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F15" s="58" t="n">
         <v>1</v>
@@ -9257,16 +9319,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F16" s="58" t="n">
         <v>1</v>
@@ -9331,16 +9393,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F17" s="58" t="n">
         <v>1</v>
@@ -9405,16 +9467,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="58" t="n">
         <v>1</v>
@@ -9479,13 +9541,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E19" s="57" t="n">
         <v>9006968004532</v>
@@ -9553,16 +9615,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F20" s="58" t="n">
         <v>1</v>
@@ -9627,16 +9689,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="65" t="s">
-        <v>88</v>
-      </c>
       <c r="E21" s="66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F21" s="67" t="n">
         <v>1</v>
@@ -9720,14 +9782,14 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="H3:H27 G3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="58.4858299595142"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="58.914979757085"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="52" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="52" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="52" width="6.10526315789474"/>
@@ -9743,7 +9805,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
@@ -9768,70 +9830,70 @@
         <v>0</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W2" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9839,16 +9901,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" s="73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" s="75" t="n">
         <v>1</v>
@@ -9890,16 +9952,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" s="79" t="n">
         <v>1</v>
@@ -9941,16 +10003,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" s="75" t="n">
         <v>1</v>
@@ -9992,16 +10054,16 @@
         <v>7</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" s="75" t="n">
         <v>1</v>
@@ -10043,16 +10105,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E7" s="75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F7" s="75" t="n">
         <v>1</v>
@@ -10113,13 +10175,13 @@
   <dimension ref="1:31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="H3:H27 A3"/>
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="52" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="52" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="52" width="13.3886639676113"/>
@@ -10138,7 +10200,7 @@
       <c r="E1" s="24"/>
       <c r="F1" s="25"/>
       <c r="G1" s="80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="80"/>
       <c r="I1" s="80"/>
@@ -11161,73 +11223,73 @@
         <v>0</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W2" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
@@ -12233,16 +12295,16 @@
         <v>12</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="33" t="n">
         <v>3582910078913</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" s="41" t="n">
         <v>1</v>
@@ -13305,16 +13367,16 @@
         <v>12</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="33" t="n">
         <v>3582910077305</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" s="41" t="n">
         <v>1</v>
@@ -14377,16 +14439,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="33" t="n">
         <v>8901083060122</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" s="41" t="n">
         <v>1</v>
@@ -14453,16 +14515,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="33" t="n">
         <v>8901083060139</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" s="41" t="n">
         <v>1</v>
@@ -14527,16 +14589,16 @@
         <v>12</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="33" t="n">
         <v>8901083060115</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" s="41" t="n">
         <v>1</v>
@@ -14601,16 +14663,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="33" t="n">
         <v>3582910072218</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="41" t="n">
         <v>1</v>
@@ -14675,16 +14737,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="33" t="n">
         <v>3582910075660</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="41" t="n">
         <v>1</v>
@@ -14749,16 +14811,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="33" t="n">
         <v>9006968001890</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="41" t="n">
         <v>1</v>
@@ -14823,16 +14885,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="33" t="n">
         <v>9006968004082</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F11" s="41" t="n">
         <v>1</v>
@@ -14897,16 +14959,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="33" t="n">
         <v>9006968011882</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F12" s="41" t="n">
         <v>1</v>
@@ -14971,16 +15033,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="33" t="n">
         <v>9006968011479</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" s="41" t="n">
         <v>1</v>
@@ -15045,16 +15107,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="33" t="n">
         <v>9006968010793</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="41" t="n">
         <v>1</v>
@@ -15119,16 +15181,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>3582910070252</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" s="41" t="n">
         <v>1</v>
@@ -15193,16 +15255,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="33" t="n">
         <v>3582910026723</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="41" t="n">
         <v>1</v>
@@ -15267,16 +15329,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="33" t="n">
         <v>3582910071259</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="41" t="n">
         <v>1</v>
@@ -15341,16 +15403,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="33" t="n">
         <v>7896070607590</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="41" t="n">
         <v>1</v>
@@ -15415,16 +15477,16 @@
         <v>12</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" s="33" t="n">
         <v>7896070607606</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" s="41" t="n">
         <v>1</v>
@@ -15489,16 +15551,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="33" t="n">
         <v>5997086103280</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F20" s="41" t="n">
         <v>1</v>
@@ -15563,16 +15625,16 @@
         <v>12</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="33" t="n">
         <v>3582910060758</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" s="41" t="n">
         <v>1</v>
@@ -15637,16 +15699,16 @@
         <v>12</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="33" t="n">
         <v>5997086105055</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F22" s="41" t="n">
         <v>1</v>
@@ -15711,16 +15773,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" s="85" t="n">
         <v>3582910062172</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F23" s="41" t="n">
         <v>1</v>
@@ -15785,16 +15847,16 @@
         <v>12</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="86" t="n">
         <v>3582910082682</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24" s="41" t="n">
         <v>1</v>
@@ -15859,16 +15921,16 @@
         <v>12</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" s="33" t="n">
         <v>9006968004532</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F25" s="41" t="n">
         <v>1</v>
@@ -15933,16 +15995,16 @@
         <v>12</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" s="33" t="n">
         <v>8594739055209</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F26" s="41" t="n">
         <v>1</v>
@@ -16007,409 +16069,409 @@
         <v>12</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" s="33" t="n">
         <v>8594739055421</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E27" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="90" t="n">
+        <v>8594739055421</v>
+      </c>
+      <c r="D28" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="36" t="n">
-        <v>0</v>
+      <c r="E28" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="92" t="n">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="33" t="n">
-        <v>8594739055421</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="36" t="n">
+    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="90" t="n">
+        <v>3582910070252</v>
+      </c>
+      <c r="D29" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="92" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="I28" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="36" t="n">
+      <c r="I29" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="92" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="K28" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="37" t="n">
+      <c r="K29" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="93" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="M28" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" s="37" t="n">
+      <c r="M29" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="93" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="O28" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="36" t="n">
+      <c r="O29" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="92" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" s="36" t="n">
+      <c r="Q29" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" s="92" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="S28" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="T28" s="37" t="n">
+      <c r="S29" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" s="93" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="U28" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="V28" s="37" t="n">
+      <c r="U29" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" s="93" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="W28" s="36" t="n">
+      <c r="W29" s="92" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="X28" s="36" t="n">
+      <c r="X29" s="92" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="33" t="n">
-        <v>3582910070252</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="36" t="n">
+    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="90" t="n">
+        <v>3582910077305</v>
+      </c>
+      <c r="D30" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="92" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="I29" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="36" t="n">
+      <c r="I30" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="92" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="K29" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" s="37" t="n">
+      <c r="K30" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="93" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="M29" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" s="37" t="n">
+      <c r="M30" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="93" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="O29" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="36" t="n">
+      <c r="O30" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="92" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" s="36" t="n">
+      <c r="Q30" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" s="92" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="S29" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="T29" s="37" t="n">
+      <c r="S30" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" s="93" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="U29" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="V29" s="37" t="n">
+      <c r="U30" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" s="93" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="W29" s="36" t="n">
+      <c r="W30" s="92" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="X29" s="36" t="n">
+      <c r="X30" s="92" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="33" t="n">
-        <v>3582910077305</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="36" t="n">
+    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="90" t="n">
+        <v>3582910041870</v>
+      </c>
+      <c r="D31" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="92" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="I30" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="36" t="n">
+      <c r="I31" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="92" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="K30" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="37" t="n">
+      <c r="K31" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="93" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="M30" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="37" t="n">
+      <c r="M31" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="93" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="O30" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="36" t="n">
+      <c r="O31" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="92" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="36" t="n">
+      <c r="Q31" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" s="92" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="S30" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="T30" s="37" t="n">
+      <c r="S31" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" s="93" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="U30" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="V30" s="37" t="n">
+      <c r="U31" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" s="93" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="W30" s="36" t="n">
+      <c r="W31" s="92" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="X30" s="36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="33" t="n">
-        <v>3582910041870</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="36" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="36" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" s="37" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" s="37" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="36" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" s="36" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="T31" s="37" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="V31" s="37" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="36" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
-      </c>
-      <c r="X31" s="36" t="n">
+      <c r="X31" s="92" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G26"/>
+  <autoFilter ref="A2:H31"/>
   <mergeCells count="1">
     <mergeCell ref="G1:X1"/>
   </mergeCells>

--- a/Projects/SANOFIRU/Data/Template.xlsx
+++ b/Projects/SANOFIRU/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$31</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
@@ -43,6 +43,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
@@ -65,6 +66,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$A$2:$H$12</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
@@ -75,29 +77,30 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$31</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$J$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$J$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$31</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$31</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$J$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$J$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -111,474 +114,474 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="141">
   <si>
-    <t>KPI Name</t>
+    <t xml:space="preserve">KPI Name</t>
   </si>
   <si>
-    <t>KPI Group</t>
+    <t xml:space="preserve">KPI Group</t>
   </si>
   <si>
-    <t>KPI Type</t>
+    <t xml:space="preserve">KPI Type</t>
   </si>
   <si>
-    <t>Tested Group</t>
+    <t xml:space="preserve">Tested Group</t>
   </si>
   <si>
-    <t>Template Group</t>
+    <t xml:space="preserve">Template Group</t>
   </si>
   <si>
-    <t>Sheet</t>
+    <t xml:space="preserve">Sheet</t>
   </si>
   <si>
-    <t>SCORE</t>
+    <t xml:space="preserve">SCORE</t>
   </si>
   <si>
-    <t>POSM Availability Primary</t>
+    <t xml:space="preserve">POSM Availability Primary</t>
   </si>
   <si>
-    <t>Primary Shelf</t>
+    <t xml:space="preserve">Primary Shelf</t>
   </si>
   <si>
-    <t>Product Availability Per SKU</t>
+    <t xml:space="preserve">Product Availability Per SKU</t>
   </si>
   <si>
-    <t>Primary&amp;Secondary_POSM</t>
+    <t xml:space="preserve">Primary&amp;Secondary_POSM</t>
   </si>
   <si>
-    <t>numeric</t>
+    <t xml:space="preserve">numeric</t>
   </si>
   <si>
-    <t>Product Minimum Facings Primary</t>
+    <t xml:space="preserve">Product Minimum Facings Primary</t>
   </si>
   <si>
-    <t>Primary&amp;Secondary_Facings</t>
+    <t xml:space="preserve">Primary&amp;Secondary_Facings</t>
   </si>
   <si>
-    <t>Blocked Together</t>
+    <t xml:space="preserve">Blocked Together</t>
   </si>
   <si>
-    <t>Blocked Together Per Brand</t>
+    <t xml:space="preserve">Blocked Together Per Brand</t>
   </si>
   <si>
-    <t>Primary_Brand_Blocking</t>
+    <t xml:space="preserve">Primary_Brand_Blocking</t>
   </si>
   <si>
-    <t>POSM Availability Secondary</t>
+    <t xml:space="preserve">POSM Availability Secondary</t>
   </si>
   <si>
-    <t>Secondary Shelf</t>
+    <t xml:space="preserve">Secondary Shelf</t>
   </si>
   <si>
-    <t>Product Minimum Facings Secondary</t>
+    <t xml:space="preserve">Product Minimum Facings Secondary</t>
   </si>
   <si>
-    <t>MSL Compliance</t>
+    <t xml:space="preserve">MSL Compliance</t>
   </si>
   <si>
-    <t>MSL</t>
+    <t xml:space="preserve">MSL</t>
   </si>
   <si>
-    <t>Perfect Store</t>
+    <t xml:space="preserve">Perfect Store</t>
   </si>
   <si>
-    <t>Primary Shelf Compliance</t>
+    <t xml:space="preserve">Primary Shelf Compliance</t>
   </si>
   <si>
-    <t>Secondary Shelf Compliance</t>
+    <t xml:space="preserve">Secondary Shelf Compliance</t>
   </si>
   <si>
-    <t>Perfect Store Compliance</t>
+    <t xml:space="preserve">Perfect Store Compliance</t>
   </si>
   <si>
-    <t>Sum of KPIs in Group</t>
+    <t xml:space="preserve">Sum of KPIs in Group</t>
   </si>
   <si>
-    <t>store type</t>
+    <t xml:space="preserve">store type</t>
   </si>
   <si>
-    <t>Product Name</t>
+    <t xml:space="preserve">Product Name</t>
   </si>
   <si>
-    <t>Product EAN Code</t>
+    <t xml:space="preserve">Product EAN Code</t>
   </si>
   <si>
-    <t>Brand</t>
+    <t xml:space="preserve">Brand</t>
   </si>
   <si>
-    <t>Category</t>
+    <t xml:space="preserve">Category</t>
   </si>
   <si>
-    <t>Points</t>
+    <t xml:space="preserve">Points</t>
   </si>
   <si>
-    <t>A w/ POSM w/ CD</t>
+    <t xml:space="preserve">A w/ POSM w/ CD</t>
   </si>
   <si>
-    <t>A w/ POSM w/o CD</t>
+    <t xml:space="preserve">A w/ POSM w/o CD</t>
   </si>
   <si>
-    <t>A w/o POSM w/ CD</t>
+    <t xml:space="preserve">A w/o POSM w/ CD</t>
   </si>
   <si>
-    <t>A w/o POSM w/o CD</t>
+    <t xml:space="preserve">A w/o POSM w/o CD</t>
   </si>
   <si>
-    <t>B-1 w/ POSM w/ CD</t>
+    <t xml:space="preserve">B-1 w/ POSM w/ CD</t>
   </si>
   <si>
-    <t>B-1 w/ POSM w/o CD</t>
+    <t xml:space="preserve">B-1 w/ POSM w/o CD</t>
   </si>
   <si>
-    <t>B-1 w/o POSM w/ CD</t>
+    <t xml:space="preserve">B-1 w/o POSM w/ CD</t>
   </si>
   <si>
-    <t>B-1 w/o POSM w/o CD</t>
+    <t xml:space="preserve">B-1 w/o POSM w/o CD</t>
   </si>
   <si>
-    <t>B-2 w/ POSM w/ CD</t>
+    <t xml:space="preserve">B-2 w/ POSM w/ CD</t>
   </si>
   <si>
-    <t>B-2 w/ POSM w/o CD</t>
+    <t xml:space="preserve">B-2 w/ POSM w/o CD</t>
   </si>
   <si>
-    <t>B-2 w/o POSM w/ CD</t>
+    <t xml:space="preserve">B-2 w/o POSM w/ CD</t>
   </si>
   <si>
-    <t>B-2 w/o POSM w/o CD</t>
+    <t xml:space="preserve">B-2 w/o POSM w/o CD</t>
   </si>
   <si>
-    <t>B-3 w/ POSM w/ CD</t>
+    <t xml:space="preserve">B-3 w/ POSM w/ CD</t>
   </si>
   <si>
-    <t>B-3 w/ POSM w/o CD</t>
+    <t xml:space="preserve">B-3 w/ POSM w/o CD</t>
   </si>
   <si>
-    <t>B-3 w/o POSM w/ CD</t>
+    <t xml:space="preserve">B-3 w/o POSM w/ CD</t>
   </si>
   <si>
-    <t>B-3 w/o POSM w/o CD</t>
+    <t xml:space="preserve">B-3 w/o POSM w/o CD</t>
   </si>
   <si>
-    <t>B-4 w/o POSM w/o CD</t>
+    <t xml:space="preserve">B-4 w/o POSM w/o CD</t>
   </si>
   <si>
-    <t>B-4 w/o POSM w/ CD</t>
+    <t xml:space="preserve">B-4 w/o POSM w/ CD</t>
   </si>
   <si>
-    <t>ESSENTIALE FORTE N 300MG CAP BL9X10</t>
+    <t xml:space="preserve">ESSENTIALE FORTE N 300MG CAP BL9X10</t>
   </si>
   <si>
-    <t>ESSENTIALE</t>
+    <t xml:space="preserve">ESSENTIALE</t>
   </si>
   <si>
-    <t>Hepatoprotectors</t>
+    <t xml:space="preserve">Hepatoprotectors</t>
   </si>
   <si>
-    <t>ESSENTIALE FORTE N CAPS 300MG #30</t>
+    <t xml:space="preserve">ESSENTIALE FORTE N CAPS 300MG #30</t>
   </si>
   <si>
-    <t>FESTAL DRAGEE 200MG #20</t>
+    <t xml:space="preserve">FESTAL DRAGEE 200MG #20</t>
   </si>
   <si>
-    <t>FESTAL</t>
+    <t xml:space="preserve">FESTAL</t>
   </si>
   <si>
-    <t>DH</t>
+    <t xml:space="preserve">DH</t>
   </si>
   <si>
-    <t>FESTAL DRAGEE 200MG #40</t>
+    <t xml:space="preserve">FESTAL DRAGEE 200MG #40</t>
   </si>
   <si>
-    <t>FESTAL DRAGEE 200MG #100</t>
+    <t xml:space="preserve">FESTAL DRAGEE 200MG #100</t>
   </si>
   <si>
-    <t>MAALOX TABS 400MG #20</t>
+    <t xml:space="preserve">MAALOX TABS 400MG #20</t>
   </si>
   <si>
-    <t>MAALOX</t>
+    <t xml:space="preserve">MAALOX</t>
   </si>
   <si>
-    <t>MAALOX stick pack 4,3ml #6 red fruit taste</t>
+    <t xml:space="preserve">MAALOX stick pack 4,3ml #6 red fruit taste</t>
   </si>
   <si>
-    <t>GUTTALAX 300MG/40ML 30ML EEDRO BT1 M36RU</t>
+    <t xml:space="preserve">GUTTALAX 300MG/40ML 30ML EEDRO BT1 M36RU</t>
   </si>
   <si>
-    <t>GUTTALAX</t>
+    <t xml:space="preserve">GUTTALAX</t>
   </si>
   <si>
-    <t>LASOLVAN 300MG/40ML SOLIN BT1 M60 RU</t>
+    <t xml:space="preserve">LASOLVAN 300MG/40ML SOLIN BT1 M60 RU</t>
   </si>
   <si>
-    <t>LASOLVAN</t>
+    <t xml:space="preserve">LASOLVAN</t>
   </si>
   <si>
-    <t>C&amp;C</t>
+    <t xml:space="preserve">C&amp;C</t>
   </si>
   <si>
-    <t>LASOLVAN 15mg/5ml Syrup 100ml</t>
+    <t xml:space="preserve">LASOLVAN 15mg/5ml Syrup 100ml</t>
   </si>
   <si>
-    <t>LASOLVAN 30mg/5ml Syrup 100ml</t>
+    <t xml:space="preserve">LASOLVAN 30mg/5ml Syrup 100ml</t>
   </si>
   <si>
-    <t>LASOLVAN MAX 75MG CAPCR BL1X10 M36 RU</t>
+    <t xml:space="preserve">LASOLVAN MAX 75MG CAPCR BL1X10 M36 RU</t>
   </si>
   <si>
-    <t>MAGNE B6 TABS 48MG/5MG BLIST #50</t>
+    <t xml:space="preserve">MAGNE B6 TABS 48MG/5MG BLIST #50</t>
   </si>
   <si>
-    <t>MAGNE B6</t>
+    <t xml:space="preserve">MAGNE B6</t>
   </si>
   <si>
-    <t>VMS</t>
+    <t xml:space="preserve">VMS</t>
   </si>
   <si>
-    <t>MAGNE B6 AMP 100MG/ 10MG/ 10ML #10</t>
+    <t xml:space="preserve">MAGNE B6 AMP 100MG/ 10MG/ 10ML #10</t>
   </si>
   <si>
-    <t>MAGNE B6 FORTE #30</t>
+    <t xml:space="preserve">MAGNE B6 FORTE #30</t>
   </si>
   <si>
-    <t>D-SUN LEMON 20ML DROP</t>
+    <t xml:space="preserve">D-SUN LEMON 20ML DROP</t>
   </si>
   <si>
-    <t>D-Sun</t>
+    <t xml:space="preserve">D-Sun</t>
   </si>
   <si>
-    <t>D-SUN RASPBERRY 10ML DROP</t>
+    <t xml:space="preserve">D-SUN RASPBERRY 10ML DROP</t>
   </si>
   <si>
-    <t>NO-SPA TABS 40MG #100</t>
+    <t xml:space="preserve">NO-SPA TABS 40MG #100</t>
   </si>
   <si>
-    <t>NO-SPA</t>
+    <t xml:space="preserve">NO-SPA</t>
   </si>
   <si>
-    <t>Pain</t>
+    <t xml:space="preserve">Pain</t>
   </si>
   <si>
-    <t>NO-SPA 40mg #24</t>
+    <t xml:space="preserve">NO-SPA 40mg #24</t>
   </si>
   <si>
-    <t>NO-SPA TAB 40 MG (PUSH-TOP) #60</t>
+    <t xml:space="preserve">NO-SPA TAB 40 MG (PUSH-TOP) #60</t>
   </si>
   <si>
-    <t>NO-SPA FORTE 80MG TAB BL1X24 M36 RU</t>
+    <t xml:space="preserve">NO-SPA FORTE 80MG TAB BL1X24 M36 RU</t>
   </si>
   <si>
-    <t>FINALGON CREAM/35G 1/1,7+10,8MG/G RUS</t>
+    <t xml:space="preserve">FINALGON CREAM/35G 1/1,7+10,8MG/G RUS</t>
   </si>
   <si>
-    <t>
+    <t xml:space="preserve">
 3582910082682 </t>
   </si>
   <si>
-    <t>FINALGON</t>
+    <t xml:space="preserve">FINALGON</t>
   </si>
   <si>
-    <t>FINALGON 25MG-4MG/G OINT TB1 M48 RU</t>
+    <t xml:space="preserve">FINALGON 25MG-4MG/G OINT TB1 M48 RU</t>
   </si>
   <si>
-    <t>Zodac GTT.20ML</t>
+    <t xml:space="preserve">Zodac GTT.20ML</t>
   </si>
   <si>
-    <t>ZODAC</t>
+    <t xml:space="preserve">ZODAC</t>
   </si>
   <si>
-    <t>Allergy</t>
+    <t xml:space="preserve">Allergy</t>
   </si>
   <si>
-    <t>Zodac TABS.FLM.30X10MG</t>
+    <t xml:space="preserve">Zodac TABS.FLM.30X10MG</t>
   </si>
   <si>
-    <t>SKUs</t>
+    <t xml:space="preserve">SKUs</t>
   </si>
   <si>
-    <t>Shelf Location Compliance</t>
+    <t xml:space="preserve">Shelf Location Compliance</t>
   </si>
   <si>
-    <t>Ignore Empty</t>
+    <t xml:space="preserve">Ignore Empty</t>
   </si>
   <si>
-    <t>ESSENTIALE FORTE N 300MG CAP BL9X10,
+    <t xml:space="preserve">ESSENTIALE FORTE N 300MG CAP BL9X10,
 ESSENTIALE FORTE N CAPS 300MG #30</t>
   </si>
   <si>
-    <t>3582910078913,
+    <t xml:space="preserve">3582910078913,
 3582910077305</t>
   </si>
   <si>
-    <t>FESTAL DRAGEE 200MG #20,
+    <t xml:space="preserve">FESTAL DRAGEE 200MG #20,
 FESTAL DRAGEE 200MG #40,
 FESTAL DRAGEE 200MG #100</t>
   </si>
   <si>
-    <t>8901083060122,
+    <t xml:space="preserve">8901083060122,
 8901083060139,
 8901083060115</t>
   </si>
   <si>
-    <t>FESTAL DRAGEE 200MG #20,
+    <t xml:space="preserve">FESTAL DRAGEE 200MG #20,
 FESTAL DRAGEE 200MG #40</t>
   </si>
   <si>
-    <t>8901083060122,
+    <t xml:space="preserve">8901083060122,
 8901083060139</t>
   </si>
   <si>
-    <t>MAALOX TABS 400MG #20,
+    <t xml:space="preserve">MAALOX TABS 400MG #20,
 MAALOX stick pack 4,3ml #6 red fruit taste</t>
   </si>
   <si>
-    <t>3582910072218,
+    <t xml:space="preserve">3582910072218,
 3582910075660</t>
   </si>
   <si>
-    <t>Guttalax</t>
+    <t xml:space="preserve">Guttalax</t>
   </si>
   <si>
-    <t>LASOLVAN 300MG/40ML SOLIN BT1 M60 RU, 
+    <t xml:space="preserve">LASOLVAN 300MG/40ML SOLIN BT1 M60 RU, 
 LASOLVAN 15mg/5ml Syrup 100ml,
 LASOLVAN 30mg/5ml Syrup 100ml,
 LASOLVAN MAX 75MG CAPCR BL1X10 M36 RU,</t>
   </si>
   <si>
-    <t>9006968004082,
+    <t xml:space="preserve">9006968004082,
 9006968011882,
 9006968011479,
 9006968010793</t>
   </si>
   <si>
-    <t>LASOLVAN 300MG/40ML SOLIN BT1 M60 RU, 
+    <t xml:space="preserve">LASOLVAN 300MG/40ML SOLIN BT1 M60 RU, 
 LASOLVAN 15mg/5ml Syrup 100ml,
 LASOLVAN 30mg/5ml Syrup 100ml</t>
   </si>
   <si>
-    <t>9006968004082,
+    <t xml:space="preserve">9006968004082,
 9006968011882,
 9006968011479</t>
   </si>
   <si>
-    <t>MAGNE B6 TABS 48MG/5MG BLIST #50,
+    <t xml:space="preserve">MAGNE B6 TABS 48MG/5MG BLIST #50,
 MAGNE B6 AMP 100MG/ 10MG/ 10ML #10,
 MAGNE B6 FORTE #30</t>
   </si>
   <si>
-    <t>3582910070252,
+    <t xml:space="preserve">3582910070252,
 3582910026723,
 3582910071259</t>
   </si>
   <si>
-    <t>MAGNE B6 TABS 48MG/5MG BLIST #50,
+    <t xml:space="preserve">MAGNE B6 TABS 48MG/5MG BLIST #50,
 MAGNE B6 FORTE #30</t>
   </si>
   <si>
-    <t>3582910070252,
+    <t xml:space="preserve">3582910070252,
 3582910071259</t>
   </si>
   <si>
-    <t>D-SUN LEMON 20ML DROP,
+    <t xml:space="preserve">D-SUN LEMON 20ML DROP,
 D-SUN RASPBERRY 10ML DROP</t>
   </si>
   <si>
-    <t>7896070607590,
+    <t xml:space="preserve">7896070607590,
 7896070607606</t>
   </si>
   <si>
-    <t>NO-SPA TABS 40MG #100,
+    <t xml:space="preserve">NO-SPA TABS 40MG #100,
 NO-SPA 40mg #24,
 NO-SPA TAB 40 MG (PUSH-TOP) #60,
 NO-SPA FORTE 80MG TAB BL1X24 M36 RU</t>
   </si>
   <si>
-    <t>5997086103280,
+    <t xml:space="preserve">5997086103280,
 3582910060758,
 5997086105055,
 3582910062172</t>
   </si>
   <si>
-    <t>NO-SPA TABS 40MG #100,
+    <t xml:space="preserve">NO-SPA TABS 40MG #100,
 NO-SPA 40mg #24,
 NO-SPA TAB 40 MG (PUSH-TOP) #60</t>
   </si>
   <si>
-    <t>5997086103280,
+    <t xml:space="preserve">5997086103280,
 3582910060758,
 5997086105055</t>
   </si>
   <si>
-    <t>NO-SPA TABS 40MG #100,
+    <t xml:space="preserve">NO-SPA TABS 40MG #100,
 NO-SPA 40mg #24</t>
   </si>
   <si>
-    <t>5997086103280,
+    <t xml:space="preserve">5997086103280,
 3582910060758</t>
   </si>
   <si>
-    <t>FINALGON CREAM/35G 1/1,7+10,8MG/G RUS,
+    <t xml:space="preserve">FINALGON CREAM/35G 1/1,7+10,8MG/G RUS,
 FINALGON 25MG-4MG/G OINT TB1 M48 RU</t>
   </si>
   <si>
-    <t>3582910082682,
+    <t xml:space="preserve">3582910082682,
 9006968004532</t>
   </si>
   <si>
-    <t>Zodac TABS.FLM.30X10MG,
+    <t xml:space="preserve">Zodac TABS.FLM.30X10MG,
 Zodac GTT.20ML</t>
   </si>
   <si>
-    <t>8594739055421,
+    <t xml:space="preserve">8594739055421,
 8594739055209
 </t>
   </si>
   <si>
-    <t>8594739055209
+    <t xml:space="preserve">8594739055209
 </t>
   </si>
   <si>
-    <t>D-Sun primary POSM</t>
+    <t xml:space="preserve">D-Sun primary POSM</t>
   </si>
   <si>
-    <t>RU-ST-01</t>
+    <t xml:space="preserve">RU-ST-01</t>
   </si>
   <si>
-    <t>Essentiale primary POSM</t>
+    <t xml:space="preserve">Essentiale primary POSM</t>
   </si>
   <si>
-    <t>RU-ST-02</t>
+    <t xml:space="preserve">RU-ST-02</t>
   </si>
   <si>
-    <t>Essentiale</t>
+    <t xml:space="preserve">Essentiale</t>
   </si>
   <si>
-    <t>Lasolvan primary POSM</t>
+    <t xml:space="preserve">Lasolvan primary POSM</t>
   </si>
   <si>
-    <t>RU-ST-03</t>
+    <t xml:space="preserve">RU-ST-03</t>
   </si>
   <si>
-    <t>Lasolvan</t>
+    <t xml:space="preserve">Lasolvan</t>
   </si>
   <si>
-    <t>Magne B6 primary POSM</t>
+    <t xml:space="preserve">Magne B6 primary POSM</t>
   </si>
   <si>
-    <t>RU-ST-04</t>
+    <t xml:space="preserve">RU-ST-04</t>
   </si>
   <si>
-    <t>Magne B6</t>
+    <t xml:space="preserve">Magne B6</t>
   </si>
   <si>
-    <t>No-spa primary POSM</t>
+    <t xml:space="preserve">No-spa primary POSM</t>
   </si>
   <si>
-    <t>RU-ST-05</t>
+    <t xml:space="preserve">RU-ST-05</t>
   </si>
   <si>
-    <t>No-Spa</t>
+    <t xml:space="preserve">No-Spa</t>
   </si>
   <si>
-    <t>No Spa 40 mg city pack #6</t>
+    <t xml:space="preserve">No Spa 40 mg city pack #6</t>
   </si>
 </sst>
 </file>
@@ -586,12 +589,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -729,6 +732,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1025,7 +1035,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1282,6 +1292,22 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1294,7 +1320,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1346,7 +1372,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="22" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1392,14 +1418,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1524,7 +1542,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4106880" y="1474920"/>
+          <a:off x="4180680" y="1474920"/>
           <a:ext cx="360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1548,7 +1566,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>915480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>378000</xdr:rowOff>
+      <xdr:rowOff>377640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1561,8 +1579,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4020120" y="1462320"/>
-          <a:ext cx="360" cy="116280"/>
+          <a:off x="4093920" y="1462320"/>
+          <a:ext cx="360" cy="115920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1588,9 +1606,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2000880</xdr:colOff>
+      <xdr:colOff>2000520</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>474120</xdr:rowOff>
+      <xdr:rowOff>473760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1603,8 +1621,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4180680" y="901440"/>
-          <a:ext cx="1080" cy="189720"/>
+          <a:off x="4231080" y="901440"/>
+          <a:ext cx="720" cy="189360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1630,19 +1648,19 @@
   </sheetPr>
   <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3441295546559"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8947368421053"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0931174089069"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.4412955465587"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.9473684210526"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.834008097166"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,21 +1900,21 @@
   </sheetPr>
   <dimension ref="1:27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.7611336032389"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0364372469636"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7732793522267"/>
     <col collapsed="false" hidden="true" max="6" min="6" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2267206477733"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.0202429149798"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3832,20 +3850,19 @@
   </sheetPr>
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.0364372469636"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.7611336032389"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8947368421053"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.97570850202429"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4240,22 +4257,22 @@
   </sheetPr>
   <dimension ref="A1:AMH21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R27" activeCellId="0" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="52" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="52" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="52" width="6"/>
-    <col collapsed="false" hidden="false" max="1022" min="9" style="52" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="11.0202429149798"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="40.7611336032389"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="23.0161943319838"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="52" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="52" width="6.24291497975709"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="52" width="6.12145748987854"/>
+    <col collapsed="false" hidden="false" max="1022" min="9" style="52" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9610,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="27.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="62" t="s">
         <v>14</v>
       </c>
@@ -9626,135 +9643,135 @@
       <c r="E20" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="60" t="n">
+      <c r="F20" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="67" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="W21" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="70" t="n">
+      <c r="F21" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9781,21 +9798,21 @@
   </sheetPr>
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="52" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="52" width="6"/>
-    <col collapsed="false" hidden="false" max="1022" min="8" style="52" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="25.0931174089069"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="26.080971659919"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="60.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="11.0202429149798"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="52" width="6.24291497975709"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="52" width="6.12145748987854"/>
+    <col collapsed="false" hidden="false" max="1022" min="8" style="52" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="48.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9897,259 +9914,259 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
+      <c r="F3" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
+      <c r="F4" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
+      <c r="F5" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
+      <c r="F6" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
+      <c r="F7" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10174,22 +10191,22 @@
   </sheetPr>
   <dimension ref="1:31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O42" activeCellId="0" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="52" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="52" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="52" width="6"/>
-    <col collapsed="false" hidden="false" max="1022" min="9" style="52" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="32.4412955465587"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="34.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="14.3238866396761"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="52" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="52" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="52" width="6.12145748987854"/>
+    <col collapsed="false" hidden="false" max="1022" min="9" style="52" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10199,26 +10216,26 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="25"/>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
       <c r="Y1" s="0"/>
       <c r="Z1" s="0"/>
       <c r="AA1" s="0"/>
@@ -11219,22 +11236,22 @@
       <c r="AMH1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="48.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="82" t="s">
+      <c r="A2" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="86" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="29" t="s">
@@ -12291,7 +12308,7 @@
       <c r="AMH2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="32" t="s">
@@ -13363,7 +13380,7 @@
       <c r="AMH3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="32" t="s">
@@ -14435,7 +14452,7 @@
       <c r="AMH4" s="0"/>
     </row>
     <row r="5" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -14511,7 +14528,7 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="32" t="s">
@@ -14585,7 +14602,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="32" t="s">
@@ -14659,7 +14676,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="32" t="s">
@@ -14733,7 +14750,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -14807,7 +14824,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="88" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="32" t="s">
@@ -14881,7 +14898,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="32" t="s">
@@ -14955,7 +14972,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="32" t="s">
@@ -15029,7 +15046,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="32" t="s">
@@ -15103,7 +15120,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -15177,7 +15194,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="88" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -15251,7 +15268,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="88" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="32" t="s">
@@ -15325,7 +15342,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="88" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="32" t="s">
@@ -15399,7 +15416,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="32" t="s">
@@ -15473,7 +15490,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="32" t="s">
@@ -15547,7 +15564,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="32" t="s">
@@ -15621,7 +15638,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="32" t="s">
@@ -15695,7 +15712,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -15769,13 +15786,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="85" t="n">
+      <c r="C23" s="89" t="n">
         <v>3582910062172</v>
       </c>
       <c r="D23" s="34" t="s">
@@ -15843,13 +15860,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="86" t="n">
+      <c r="C24" s="90" t="n">
         <v>3582910082682</v>
       </c>
       <c r="D24" s="34" t="s">
@@ -15917,7 +15934,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -15991,7 +16008,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="91" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="32" t="s">
@@ -16065,7 +16082,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="75" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="32" t="s">
@@ -16138,340 +16155,340 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="88" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="90" t="n">
+      <c r="C28" s="94" t="n">
         <v>8594739055421</v>
       </c>
-      <c r="D28" s="91" t="s">
+      <c r="D28" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="91" t="s">
+      <c r="E28" s="95" t="s">
         <v>91</v>
       </c>
       <c r="F28" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="92" t="n">
+      <c r="G28" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="I28" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="92" t="n">
+      <c r="I28" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="K28" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="93" t="n">
+      <c r="K28" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="37" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="M28" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" s="93" t="n">
+      <c r="M28" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="37" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="O28" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="92" t="n">
+      <c r="O28" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" s="92" t="n">
+      <c r="Q28" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="S28" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="T28" s="93" t="n">
+      <c r="S28" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" s="37" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="U28" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="V28" s="93" t="n">
+      <c r="U28" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" s="37" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="W28" s="92" t="n">
+      <c r="W28" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="X28" s="92" t="n">
+      <c r="X28" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="90" t="n">
+      <c r="C29" s="94" t="n">
         <v>3582910070252</v>
       </c>
-      <c r="D29" s="91" t="s">
+      <c r="D29" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="91" t="s">
+      <c r="E29" s="95" t="s">
         <v>73</v>
       </c>
       <c r="F29" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="G29" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="92" t="n">
+      <c r="G29" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="I29" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="92" t="n">
+      <c r="I29" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="K29" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" s="93" t="n">
+      <c r="K29" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="37" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="M29" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" s="93" t="n">
+      <c r="M29" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="37" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="O29" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="92" t="n">
+      <c r="O29" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" s="92" t="n">
+      <c r="Q29" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="S29" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="T29" s="93" t="n">
+      <c r="S29" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" s="37" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="U29" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="V29" s="93" t="n">
+      <c r="U29" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" s="37" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="W29" s="92" t="n">
+      <c r="W29" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="X29" s="92" t="n">
+      <c r="X29" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="90" t="n">
+      <c r="C30" s="94" t="n">
         <v>3582910077305</v>
       </c>
-      <c r="D30" s="91" t="s">
+      <c r="D30" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="91" t="s">
+      <c r="E30" s="95" t="s">
         <v>53</v>
       </c>
       <c r="F30" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="92" t="n">
+      <c r="G30" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="I30" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="92" t="n">
+      <c r="I30" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="K30" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="93" t="n">
+      <c r="K30" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="37" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="M30" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="93" t="n">
+      <c r="M30" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="37" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="O30" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="92" t="n">
+      <c r="O30" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="92" t="n">
+      <c r="Q30" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="S30" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="T30" s="93" t="n">
+      <c r="S30" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" s="37" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="U30" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="V30" s="93" t="n">
+      <c r="U30" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" s="37" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="W30" s="92" t="n">
+      <c r="W30" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="X30" s="92" t="n">
+      <c r="X30" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="90" t="n">
+      <c r="C31" s="94" t="n">
         <v>3582910041870</v>
       </c>
-      <c r="D31" s="91" t="s">
+      <c r="D31" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="91" t="s">
+      <c r="E31" s="95" t="s">
         <v>81</v>
       </c>
       <c r="F31" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="92" t="n">
+      <c r="G31" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="I31" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="92" t="n">
+      <c r="I31" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="K31" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" s="93" t="n">
+      <c r="K31" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="37" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="M31" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" s="93" t="n">
+      <c r="M31" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="37" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="O31" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="92" t="n">
+      <c r="O31" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" s="92" t="n">
+      <c r="Q31" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="S31" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="T31" s="93" t="n">
+      <c r="S31" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" s="37" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="U31" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="V31" s="93" t="n">
+      <c r="U31" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" s="37" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="W31" s="92" t="n">
+      <c r="W31" s="36" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
-      <c r="X31" s="92" t="n">
+      <c r="X31" s="36" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H31"/>
+  <autoFilter ref="A2:G26"/>
   <mergeCells count="1">
     <mergeCell ref="G1:X1"/>
   </mergeCells>

--- a/Projects/SANOFIRU/Data/Template.xlsx
+++ b/Projects/SANOFIRU/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$31</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
@@ -44,6 +44,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
@@ -67,6 +68,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$A$2:$H$12</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
@@ -77,30 +79,31 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$31</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$31</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$J$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$J$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$31</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$31</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$J$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$J$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -112,476 +115,470 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="139">
   <si>
-    <t xml:space="preserve">KPI Name</t>
+    <t>KPI Name</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI Group</t>
+    <t>KPI Group</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI Type</t>
+    <t>KPI Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Tested Group</t>
+    <t>Tested Group</t>
   </si>
   <si>
-    <t xml:space="preserve">Template Group</t>
+    <t>Template Group</t>
   </si>
   <si>
-    <t xml:space="preserve">Sheet</t>
+    <t>Sheet</t>
   </si>
   <si>
-    <t xml:space="preserve">SCORE</t>
+    <t>SCORE</t>
   </si>
   <si>
-    <t xml:space="preserve">POSM Availability Primary</t>
+    <t>POSM Availability Primary</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary Shelf</t>
+    <t>Primary Shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Availability Per SKU</t>
+    <t>Product Availability Per SKU</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary&amp;Secondary_POSM</t>
+    <t>Primary&amp;Secondary_POSM</t>
   </si>
   <si>
-    <t xml:space="preserve">numeric</t>
+    <t>numeric</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Minimum Facings Primary</t>
+    <t>Product Minimum Facings Primary</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary&amp;Secondary_Facings</t>
+    <t>Primary&amp;Secondary_Facings</t>
   </si>
   <si>
-    <t xml:space="preserve">Blocked Together</t>
+    <t>POSM Availability Secondary</t>
   </si>
   <si>
-    <t xml:space="preserve">Blocked Together Per Brand</t>
+    <t>Secondary Shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary_Brand_Blocking</t>
+    <t>Product Minimum Facings Secondary</t>
   </si>
   <si>
-    <t xml:space="preserve">POSM Availability Secondary</t>
+    <t>MSL Compliance</t>
   </si>
   <si>
-    <t xml:space="preserve">Secondary Shelf</t>
+    <t>MSL</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Minimum Facings Secondary</t>
+    <t>Perfect Store</t>
   </si>
   <si>
-    <t xml:space="preserve">MSL Compliance</t>
+    <t>Primary Shelf Compliance</t>
   </si>
   <si>
-    <t xml:space="preserve">MSL</t>
+    <t>Secondary Shelf Compliance</t>
   </si>
   <si>
-    <t xml:space="preserve">Perfect Store</t>
+    <t>Perfect Store Compliance</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary Shelf Compliance</t>
+    <t>Sum of KPIs in Group</t>
   </si>
   <si>
-    <t xml:space="preserve">Secondary Shelf Compliance</t>
+    <t>store type</t>
   </si>
   <si>
-    <t xml:space="preserve">Perfect Store Compliance</t>
+    <t>Product Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Sum of KPIs in Group</t>
+    <t>Product EAN Code</t>
   </si>
   <si>
-    <t xml:space="preserve">store type</t>
+    <t>Brand</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Name</t>
+    <t>Category</t>
   </si>
   <si>
-    <t xml:space="preserve">Product EAN Code</t>
+    <t>Points</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand</t>
+    <t>A w/ POSM w/ CD</t>
   </si>
   <si>
-    <t xml:space="preserve">Category</t>
+    <t>A w/ POSM w/o CD</t>
   </si>
   <si>
-    <t xml:space="preserve">Points</t>
+    <t>A w/o POSM w/ CD</t>
   </si>
   <si>
-    <t xml:space="preserve">A w/ POSM w/ CD</t>
+    <t>A w/o POSM w/o CD</t>
   </si>
   <si>
-    <t xml:space="preserve">A w/ POSM w/o CD</t>
+    <t>B-1 w/ POSM w/ CD</t>
   </si>
   <si>
-    <t xml:space="preserve">A w/o POSM w/ CD</t>
+    <t>B-1 w/ POSM w/o CD</t>
   </si>
   <si>
-    <t xml:space="preserve">A w/o POSM w/o CD</t>
+    <t>B-1 w/o POSM w/ CD</t>
   </si>
   <si>
-    <t xml:space="preserve">B-1 w/ POSM w/ CD</t>
+    <t>B-1 w/o POSM w/o CD</t>
   </si>
   <si>
-    <t xml:space="preserve">B-1 w/ POSM w/o CD</t>
+    <t>B-2 w/ POSM w/ CD</t>
   </si>
   <si>
-    <t xml:space="preserve">B-1 w/o POSM w/ CD</t>
+    <t>B-2 w/ POSM w/o CD</t>
   </si>
   <si>
-    <t xml:space="preserve">B-1 w/o POSM w/o CD</t>
+    <t>B-2 w/o POSM w/ CD</t>
   </si>
   <si>
-    <t xml:space="preserve">B-2 w/ POSM w/ CD</t>
+    <t>B-2 w/o POSM w/o CD</t>
   </si>
   <si>
-    <t xml:space="preserve">B-2 w/ POSM w/o CD</t>
+    <t>B-3 w/ POSM w/ CD</t>
   </si>
   <si>
-    <t xml:space="preserve">B-2 w/o POSM w/ CD</t>
+    <t>B-3 w/ POSM w/o CD</t>
   </si>
   <si>
-    <t xml:space="preserve">B-2 w/o POSM w/o CD</t>
+    <t>B-3 w/o POSM w/ CD</t>
   </si>
   <si>
-    <t xml:space="preserve">B-3 w/ POSM w/ CD</t>
+    <t>B-3 w/o POSM w/o CD</t>
   </si>
   <si>
-    <t xml:space="preserve">B-3 w/ POSM w/o CD</t>
+    <t>B-4 w/o POSM w/o CD</t>
   </si>
   <si>
-    <t xml:space="preserve">B-3 w/o POSM w/ CD</t>
+    <t>B-4 w/o POSM w/ CD</t>
   </si>
   <si>
-    <t xml:space="preserve">B-3 w/o POSM w/o CD</t>
+    <t>ESSENTIALE FORTE N 300MG CAP BL9X10</t>
   </si>
   <si>
-    <t xml:space="preserve">B-4 w/o POSM w/o CD</t>
+    <t>ESSENTIALE</t>
   </si>
   <si>
-    <t xml:space="preserve">B-4 w/o POSM w/ CD</t>
+    <t>Hepatoprotectors</t>
   </si>
   <si>
-    <t xml:space="preserve">ESSENTIALE FORTE N 300MG CAP BL9X10</t>
+    <t>ESSENTIALE FORTE N CAPS 300MG #30</t>
   </si>
   <si>
-    <t xml:space="preserve">ESSENTIALE</t>
+    <t>FESTAL DRAGEE 200MG #20</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatoprotectors</t>
+    <t>FESTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">ESSENTIALE FORTE N CAPS 300MG #30</t>
+    <t>DH</t>
   </si>
   <si>
-    <t xml:space="preserve">FESTAL DRAGEE 200MG #20</t>
+    <t>FESTAL DRAGEE 200MG #40</t>
   </si>
   <si>
-    <t xml:space="preserve">FESTAL</t>
+    <t>FESTAL DRAGEE 200MG #100</t>
   </si>
   <si>
-    <t xml:space="preserve">DH</t>
+    <t>MAALOX TABS 400MG #20</t>
   </si>
   <si>
-    <t xml:space="preserve">FESTAL DRAGEE 200MG #40</t>
+    <t>MAALOX</t>
   </si>
   <si>
-    <t xml:space="preserve">FESTAL DRAGEE 200MG #100</t>
+    <t>MAALOX stick pack 4,3ml #6 red fruit taste</t>
   </si>
   <si>
-    <t xml:space="preserve">MAALOX TABS 400MG #20</t>
+    <t>GUTTALAX 300MG/40ML 30ML EEDRO BT1 M36RU</t>
   </si>
   <si>
-    <t xml:space="preserve">MAALOX</t>
+    <t>GUTTALAX</t>
   </si>
   <si>
-    <t xml:space="preserve">MAALOX stick pack 4,3ml #6 red fruit taste</t>
+    <t>LASOLVAN 300MG/40ML SOLIN BT1 M60 RU</t>
   </si>
   <si>
-    <t xml:space="preserve">GUTTALAX 300MG/40ML 30ML EEDRO BT1 M36RU</t>
+    <t>LASOLVAN</t>
   </si>
   <si>
-    <t xml:space="preserve">GUTTALAX</t>
+    <t>C&amp;C</t>
   </si>
   <si>
-    <t xml:space="preserve">LASOLVAN 300MG/40ML SOLIN BT1 M60 RU</t>
+    <t>LASOLVAN 15mg/5ml Syrup 100ml</t>
   </si>
   <si>
-    <t xml:space="preserve">LASOLVAN</t>
+    <t>LASOLVAN 30mg/5ml Syrup 100ml</t>
   </si>
   <si>
-    <t xml:space="preserve">C&amp;C</t>
+    <t>LASOLVAN MAX 75MG CAPCR BL1X10 M36 RU</t>
   </si>
   <si>
-    <t xml:space="preserve">LASOLVAN 15mg/5ml Syrup 100ml</t>
+    <t>MAGNE B6 TABS 48MG/5MG BLIST #50</t>
   </si>
   <si>
-    <t xml:space="preserve">LASOLVAN 30mg/5ml Syrup 100ml</t>
+    <t>MAGNE B6</t>
   </si>
   <si>
-    <t xml:space="preserve">LASOLVAN MAX 75MG CAPCR BL1X10 M36 RU</t>
+    <t>VMS</t>
   </si>
   <si>
-    <t xml:space="preserve">MAGNE B6 TABS 48MG/5MG BLIST #50</t>
+    <t>MAGNE B6 AMP 100MG/ 10MG/ 10ML #10</t>
   </si>
   <si>
-    <t xml:space="preserve">MAGNE B6</t>
+    <t>MAGNE B6 FORTE #30</t>
   </si>
   <si>
-    <t xml:space="preserve">VMS</t>
+    <t>D-SUN LEMON 20ML DROP</t>
   </si>
   <si>
-    <t xml:space="preserve">MAGNE B6 AMP 100MG/ 10MG/ 10ML #10</t>
+    <t>D-Sun</t>
   </si>
   <si>
-    <t xml:space="preserve">MAGNE B6 FORTE #30</t>
+    <t>D-SUN RASPBERRY 10ML DROP</t>
   </si>
   <si>
-    <t xml:space="preserve">D-SUN LEMON 20ML DROP</t>
+    <t>NO-SPA TABS 40MG #100</t>
   </si>
   <si>
-    <t xml:space="preserve">D-Sun</t>
+    <t>NO-SPA</t>
   </si>
   <si>
-    <t xml:space="preserve">D-SUN RASPBERRY 10ML DROP</t>
+    <t>Pain</t>
   </si>
   <si>
-    <t xml:space="preserve">NO-SPA TABS 40MG #100</t>
+    <t>NO-SPA 40mg #24</t>
   </si>
   <si>
-    <t xml:space="preserve">NO-SPA</t>
+    <t>NO-SPA TAB 40 MG (PUSH-TOP) #60</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain</t>
+    <t>NO-SPA FORTE 80MG TAB BL1X24 M36 RU</t>
   </si>
   <si>
-    <t xml:space="preserve">NO-SPA 40mg #24</t>
+    <t>FINALGON CREAM/35G 1/1,7+10,8MG/G RUS</t>
   </si>
   <si>
-    <t xml:space="preserve">NO-SPA TAB 40 MG (PUSH-TOP) #60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO-SPA FORTE 80MG TAB BL1X24 M36 RU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINALGON CREAM/35G 1/1,7+10,8MG/G RUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+    <t>
 3582910082682 </t>
   </si>
   <si>
-    <t xml:space="preserve">FINALGON</t>
+    <t>FINALGON</t>
   </si>
   <si>
-    <t xml:space="preserve">FINALGON 25MG-4MG/G OINT TB1 M48 RU</t>
+    <t>FINALGON 25MG-4MG/G OINT TB1 M48 RU</t>
   </si>
   <si>
-    <t xml:space="preserve">Zodac GTT.20ML</t>
+    <t>Zodac GTT.20ML</t>
   </si>
   <si>
-    <t xml:space="preserve">ZODAC</t>
+    <t>ZODAC</t>
   </si>
   <si>
-    <t xml:space="preserve">Allergy</t>
+    <t>Allergy</t>
   </si>
   <si>
-    <t xml:space="preserve">Zodac TABS.FLM.30X10MG</t>
+    <t>Zodac TABS.FLM.30X10MG</t>
   </si>
   <si>
-    <t xml:space="preserve">SKUs</t>
+    <t>SKUs</t>
   </si>
   <si>
-    <t xml:space="preserve">Shelf Location Compliance</t>
+    <t>Shelf Location Compliance</t>
   </si>
   <si>
-    <t xml:space="preserve">Ignore Empty</t>
+    <t>Ignore Empty</t>
   </si>
   <si>
-    <t xml:space="preserve">ESSENTIALE FORTE N 300MG CAP BL9X10,
+    <t>Blocked Together</t>
+  </si>
+  <si>
+    <t>ESSENTIALE FORTE N 300MG CAP BL9X10,
 ESSENTIALE FORTE N CAPS 300MG #30</t>
   </si>
   <si>
-    <t xml:space="preserve">3582910078913,
+    <t>3582910078913,
 3582910077305</t>
   </si>
   <si>
-    <t xml:space="preserve">FESTAL DRAGEE 200MG #20,
+    <t>FESTAL DRAGEE 200MG #20,
 FESTAL DRAGEE 200MG #40,
 FESTAL DRAGEE 200MG #100</t>
   </si>
   <si>
-    <t xml:space="preserve">8901083060122,
+    <t>8901083060122,
 8901083060139,
 8901083060115</t>
   </si>
   <si>
-    <t xml:space="preserve">FESTAL DRAGEE 200MG #20,
+    <t>FESTAL DRAGEE 200MG #20,
 FESTAL DRAGEE 200MG #40</t>
   </si>
   <si>
-    <t xml:space="preserve">8901083060122,
+    <t>8901083060122,
 8901083060139</t>
   </si>
   <si>
-    <t xml:space="preserve">MAALOX TABS 400MG #20,
+    <t>MAALOX TABS 400MG #20,
 MAALOX stick pack 4,3ml #6 red fruit taste</t>
   </si>
   <si>
-    <t xml:space="preserve">3582910072218,
+    <t>3582910072218,
 3582910075660</t>
   </si>
   <si>
-    <t xml:space="preserve">Guttalax</t>
+    <t>Guttalax</t>
   </si>
   <si>
-    <t xml:space="preserve">LASOLVAN 300MG/40ML SOLIN BT1 M60 RU, 
+    <t>LASOLVAN 300MG/40ML SOLIN BT1 M60 RU, 
 LASOLVAN 15mg/5ml Syrup 100ml,
 LASOLVAN 30mg/5ml Syrup 100ml,
 LASOLVAN MAX 75MG CAPCR BL1X10 M36 RU,</t>
   </si>
   <si>
-    <t xml:space="preserve">9006968004082,
+    <t>9006968004082,
 9006968011882,
 9006968011479,
 9006968010793</t>
   </si>
   <si>
-    <t xml:space="preserve">LASOLVAN 300MG/40ML SOLIN BT1 M60 RU, 
+    <t>LASOLVAN 300MG/40ML SOLIN BT1 M60 RU, 
 LASOLVAN 15mg/5ml Syrup 100ml,
 LASOLVAN 30mg/5ml Syrup 100ml</t>
   </si>
   <si>
-    <t xml:space="preserve">9006968004082,
+    <t>9006968004082,
 9006968011882,
 9006968011479</t>
   </si>
   <si>
-    <t xml:space="preserve">MAGNE B6 TABS 48MG/5MG BLIST #50,
+    <t>MAGNE B6 TABS 48MG/5MG BLIST #50,
 MAGNE B6 AMP 100MG/ 10MG/ 10ML #10,
 MAGNE B6 FORTE #30</t>
   </si>
   <si>
-    <t xml:space="preserve">3582910070252,
+    <t>3582910070252,
 3582910026723,
 3582910071259</t>
   </si>
   <si>
-    <t xml:space="preserve">MAGNE B6 TABS 48MG/5MG BLIST #50,
+    <t>MAGNE B6 TABS 48MG/5MG BLIST #50,
 MAGNE B6 FORTE #30</t>
   </si>
   <si>
-    <t xml:space="preserve">3582910070252,
+    <t>3582910070252,
 3582910071259</t>
   </si>
   <si>
-    <t xml:space="preserve">D-SUN LEMON 20ML DROP,
+    <t>D-SUN LEMON 20ML DROP,
 D-SUN RASPBERRY 10ML DROP</t>
   </si>
   <si>
-    <t xml:space="preserve">7896070607590,
+    <t>7896070607590,
 7896070607606</t>
   </si>
   <si>
-    <t xml:space="preserve">NO-SPA TABS 40MG #100,
+    <t>NO-SPA TABS 40MG #100,
 NO-SPA 40mg #24,
 NO-SPA TAB 40 MG (PUSH-TOP) #60,
 NO-SPA FORTE 80MG TAB BL1X24 M36 RU</t>
   </si>
   <si>
-    <t xml:space="preserve">5997086103280,
+    <t>5997086103280,
 3582910060758,
 5997086105055,
 3582910062172</t>
   </si>
   <si>
-    <t xml:space="preserve">NO-SPA TABS 40MG #100,
+    <t>NO-SPA TABS 40MG #100,
 NO-SPA 40mg #24,
 NO-SPA TAB 40 MG (PUSH-TOP) #60</t>
   </si>
   <si>
-    <t xml:space="preserve">5997086103280,
+    <t>5997086103280,
 3582910060758,
 5997086105055</t>
   </si>
   <si>
-    <t xml:space="preserve">NO-SPA TABS 40MG #100,
+    <t>NO-SPA TABS 40MG #100,
 NO-SPA 40mg #24</t>
   </si>
   <si>
-    <t xml:space="preserve">5997086103280,
+    <t>5997086103280,
 3582910060758</t>
   </si>
   <si>
-    <t xml:space="preserve">FINALGON CREAM/35G 1/1,7+10,8MG/G RUS,
+    <t>FINALGON CREAM/35G 1/1,7+10,8MG/G RUS,
 FINALGON 25MG-4MG/G OINT TB1 M48 RU</t>
   </si>
   <si>
-    <t xml:space="preserve">3582910082682,
+    <t>3582910082682,
 9006968004532</t>
   </si>
   <si>
-    <t xml:space="preserve">Zodac TABS.FLM.30X10MG,
+    <t>Zodac TABS.FLM.30X10MG,
 Zodac GTT.20ML</t>
   </si>
   <si>
-    <t xml:space="preserve">8594739055421,
+    <t>8594739055421,
 8594739055209
 </t>
   </si>
   <si>
-    <t xml:space="preserve">8594739055209
+    <t>8594739055209
 </t>
   </si>
   <si>
-    <t xml:space="preserve">D-Sun primary POSM</t>
+    <t>D-Sun primary POSM</t>
   </si>
   <si>
-    <t xml:space="preserve">RU-ST-01</t>
+    <t>RU-ST-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Essentiale primary POSM</t>
+    <t>Essentiale primary POSM</t>
   </si>
   <si>
-    <t xml:space="preserve">RU-ST-02</t>
+    <t>RU-ST-02</t>
   </si>
   <si>
-    <t xml:space="preserve">Essentiale</t>
+    <t>Essentiale</t>
   </si>
   <si>
-    <t xml:space="preserve">Lasolvan primary POSM</t>
+    <t>Lasolvan primary POSM</t>
   </si>
   <si>
-    <t xml:space="preserve">RU-ST-03</t>
+    <t>RU-ST-03</t>
   </si>
   <si>
-    <t xml:space="preserve">Lasolvan</t>
+    <t>Lasolvan</t>
   </si>
   <si>
-    <t xml:space="preserve">Magne B6 primary POSM</t>
+    <t>Magne B6 primary POSM</t>
   </si>
   <si>
-    <t xml:space="preserve">RU-ST-04</t>
+    <t>RU-ST-04</t>
   </si>
   <si>
-    <t xml:space="preserve">Magne B6</t>
+    <t>Magne B6</t>
   </si>
   <si>
-    <t xml:space="preserve">No-spa primary POSM</t>
+    <t>No-spa primary POSM</t>
   </si>
   <si>
-    <t xml:space="preserve">RU-ST-05</t>
+    <t>RU-ST-05</t>
   </si>
   <si>
-    <t xml:space="preserve">No-Spa</t>
+    <t>No-Spa</t>
   </si>
   <si>
-    <t xml:space="preserve">No Spa 40 mg city pack #6</t>
+    <t>No Spa 40 mg city pack #6</t>
   </si>
 </sst>
 </file>
@@ -589,7 +586,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
@@ -1035,7 +1032,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="93">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1296,18 +1293,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1521,15 +1506,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1001880</xdr:colOff>
+      <xdr:colOff>1028880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>274320</xdr:rowOff>
+      <xdr:rowOff>265320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1002240</xdr:colOff>
+      <xdr:colOff>1029240</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>274680</xdr:rowOff>
+      <xdr:rowOff>265680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1542,7 +1527,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4180680" y="1474920"/>
+          <a:off x="4229280" y="1465920"/>
           <a:ext cx="360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1558,15 +1543,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>915120</xdr:colOff>
+      <xdr:colOff>942120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>261720</xdr:rowOff>
+      <xdr:rowOff>252720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>915480</xdr:colOff>
+      <xdr:colOff>942480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>377640</xdr:rowOff>
+      <xdr:rowOff>368280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1579,8 +1564,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4093920" y="1462320"/>
-          <a:ext cx="360" cy="115920"/>
+          <a:off x="4142520" y="1453320"/>
+          <a:ext cx="360" cy="115560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1600,15 +1585,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1999800</xdr:colOff>
+      <xdr:colOff>2026800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:rowOff>275400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2000520</xdr:colOff>
+      <xdr:colOff>2027160</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>473760</xdr:rowOff>
+      <xdr:rowOff>464400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1621,8 +1606,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4231080" y="901440"/>
-          <a:ext cx="720" cy="189360"/>
+          <a:off x="4274640" y="892440"/>
+          <a:ext cx="360" cy="189000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1648,19 +1633,19 @@
   </sheetPr>
   <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3441295546559"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8947368421053"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0931174089069"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.4412955465587"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.9473684210526"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.7773279352227"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.8178137651822"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,22 +1713,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -1751,135 +1736,115 @@
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="15"/>
       <c r="F7" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>9</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="B9" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="11"/>
       <c r="G9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="20" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1906,15 +1871,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.7611336032389"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0364372469636"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.9230769230769"/>
     <col collapsed="false" hidden="true" max="6" min="6" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2267206477733"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1925,7 +1890,7 @@
       <c r="E1" s="24"/>
       <c r="F1" s="25"/>
       <c r="G1" s="26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
@@ -1950,90 +1915,90 @@
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="G2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="H2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="I2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="J2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="K2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="P2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="R2" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="S2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="T2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="U2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="V2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="W2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="X2" s="30" t="s">
         <v>47</v>
-      </c>
-      <c r="V2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" s="30" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="33" t="n">
         <v>3582910078913</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="36" t="n">
@@ -2093,19 +2058,19 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" s="33" t="n">
         <v>3582910077305</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="36" t="n">
@@ -2165,19 +2130,19 @@
     </row>
     <row r="5" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="33" t="n">
         <v>8901083060122</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="36" t="n">
@@ -2239,19 +2204,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="33" t="n">
         <v>8901083060139</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="36" t="n">
@@ -2311,19 +2276,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="33" t="n">
         <v>8901083060115</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="36" t="n">
@@ -2383,19 +2348,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="33" t="n">
         <v>3582910072218</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="36" t="n">
@@ -2455,19 +2420,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" s="33" t="n">
         <v>3582910075660</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="36" t="n">
@@ -2527,19 +2492,19 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="33" t="n">
         <v>9006968001890</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="36" t="n">
@@ -2599,19 +2564,19 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="42" t="n">
         <v>9006968004082</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F11" s="44"/>
       <c r="G11" s="45" t="n">
@@ -2671,19 +2636,19 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" s="42" t="n">
         <v>9006968011882</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="45" t="n">
@@ -2743,19 +2708,19 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" s="42" t="n">
         <v>9006968011479</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="45" t="n">
@@ -2815,19 +2780,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" s="42" t="n">
         <v>9006968010793</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F14" s="44"/>
       <c r="G14" s="45" t="n">
@@ -2887,19 +2852,19 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>3582910070252</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="36" t="n">
@@ -2959,19 +2924,19 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" s="33" t="n">
         <v>3582910026723</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F16" s="47"/>
       <c r="G16" s="36" t="n">
@@ -3031,19 +2996,19 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C17" s="33" t="n">
         <v>3582910071259</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="36" t="n">
@@ -3103,19 +3068,19 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C18" s="33" t="n">
         <v>7896070607590</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="36" t="n">
@@ -3175,19 +3140,19 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C19" s="33" t="n">
         <v>7896070607606</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F19" s="47"/>
       <c r="G19" s="36" t="n">
@@ -3247,19 +3212,19 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C20" s="33" t="n">
         <v>5997086103280</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F20" s="47"/>
       <c r="G20" s="36" t="n">
@@ -3319,19 +3284,19 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C21" s="33" t="n">
         <v>3582910060758</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F21" s="47"/>
       <c r="G21" s="36" t="n">
@@ -3391,19 +3356,19 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C22" s="33" t="n">
         <v>5997086105055</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="36" t="n">
@@ -3463,19 +3428,19 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C23" s="33" t="n">
         <v>3582910062172</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="36" t="n">
@@ -3535,19 +3500,19 @@
     </row>
     <row r="24" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="36" t="n">
@@ -3607,19 +3572,19 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25" s="33" t="n">
         <v>9006968004532</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F25" s="47"/>
       <c r="G25" s="36" t="n">
@@ -3679,19 +3644,19 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C26" s="33" t="n">
         <v>8594739055209</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F26" s="47"/>
       <c r="G26" s="36" t="n">
@@ -3751,19 +3716,19 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C27" s="33" t="n">
         <v>8594739055421</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F27" s="47"/>
       <c r="G27" s="36" t="n">
@@ -3856,13 +3821,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.0364372469636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.7611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8947368421053"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.97570850202429"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.1336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3872,7 +3837,7 @@
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -3897,75 +3862,75 @@
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="G2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="H2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="J2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="K2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="P2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="R2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="S2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="T2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="U2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="V2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="W2" s="30" t="s">
         <v>47</v>
-      </c>
-      <c r="U2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -3992,7 +3957,7 @@
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
@@ -4019,7 +3984,7 @@
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="50"/>
       <c r="C5" s="50"/>
@@ -4046,7 +4011,7 @@
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
@@ -4073,7 +4038,7 @@
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
@@ -4100,7 +4065,7 @@
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
@@ -4127,7 +4092,7 @@
     </row>
     <row r="9" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
@@ -4154,7 +4119,7 @@
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="50"/>
@@ -4181,7 +4146,7 @@
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="50"/>
@@ -4208,7 +4173,7 @@
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
@@ -4257,22 +4222,22 @@
   </sheetPr>
   <dimension ref="A1:AMH21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R27" activeCellId="0" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="10.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="40.7611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="23.0161943319838"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="52" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="52" width="6.24291497975709"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="52" width="6.12145748987854"/>
-    <col collapsed="false" hidden="false" max="1022" min="9" style="52" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="41.1336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="52" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="52" width="6.21457489878543"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="52" width="6.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1022" min="9" style="52" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4283,7 +4248,7 @@
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
@@ -5306,73 +5271,73 @@
         <v>0</v>
       </c>
       <c r="B2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="H2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="29" t="s">
+      <c r="I2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="K2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="P2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="R2" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="S2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="T2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="U2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="V2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="W2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="X2" s="30" t="s">
         <v>47</v>
-      </c>
-      <c r="V2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" s="30" t="s">
-        <v>50</v>
       </c>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
@@ -6375,19 +6340,19 @@
     </row>
     <row r="3" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F3" s="58" t="n">
         <v>1</v>
@@ -7447,19 +7412,19 @@
     </row>
     <row r="4" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F4" s="58" t="n">
         <v>1</v>
@@ -8519,19 +8484,19 @@
     </row>
     <row r="5" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F5" s="58" t="n">
         <v>1</v>
@@ -8593,19 +8558,19 @@
     </row>
     <row r="6" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" s="58" t="n">
         <v>1</v>
@@ -8667,16 +8632,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="57" t="n">
         <v>3582910075660</v>
@@ -8741,16 +8706,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E8" s="57" t="n">
         <v>9006968001890</v>
@@ -8815,19 +8780,19 @@
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9" s="58" t="n">
         <v>1</v>
@@ -8889,19 +8854,19 @@
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10" s="58" t="n">
         <v>1</v>
@@ -8963,16 +8928,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E11" s="57" t="n">
         <v>9006968011882</v>
@@ -9037,19 +9002,19 @@
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F12" s="58" t="n">
         <v>1</v>
@@ -9111,19 +9076,19 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F13" s="58" t="n">
         <v>1</v>
@@ -9185,19 +9150,19 @@
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="62" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F14" s="58" t="n">
         <v>1</v>
@@ -9259,19 +9224,19 @@
     </row>
     <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F15" s="58" t="n">
         <v>1</v>
@@ -9333,19 +9298,19 @@
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F16" s="58" t="n">
         <v>1</v>
@@ -9407,19 +9372,19 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F17" s="58" t="n">
         <v>1</v>
@@ -9481,19 +9446,19 @@
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F18" s="58" t="n">
         <v>1</v>
@@ -9555,16 +9520,16 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E19" s="57" t="n">
         <v>9006968004532</v>
@@ -9629,149 +9594,149 @@
     </row>
     <row r="20" customFormat="false" ht="27.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="62" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F20" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="67" t="n">
+      <c r="G20" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="W21" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="74" t="n">
+        <v>93</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9804,15 +9769,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="25.0931174089069"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="26.080971659919"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="60.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="52" width="6.24291497975709"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="52" width="6.12145748987854"/>
-    <col collapsed="false" hidden="false" max="1022" min="8" style="52" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="60.8421052631579"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="52" width="6.21457489878543"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="52" width="6.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1022" min="8" style="52" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="48.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9822,7 +9787,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
@@ -9847,326 +9812,326 @@
         <v>0</v>
       </c>
       <c r="B2" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="F2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="G2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="H2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="J2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="K2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="P2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="R2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="S2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="T2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="U2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="V2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="W2" s="30" t="s">
         <v>47</v>
-      </c>
-      <c r="U2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
+      <c r="B3" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="83" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="83" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="83" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
+      <c r="E4" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="E5" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
+      <c r="E6" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="79" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
+      <c r="E7" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10197,16 +10162,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="32.4412955465587"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="34.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="14.3238866396761"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="52" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="52" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="52" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="52" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="52" width="6.12145748987854"/>
-    <col collapsed="false" hidden="false" max="1022" min="9" style="52" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="52" width="6.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1022" min="9" style="52" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10216,26 +10181,26 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="25"/>
-      <c r="G1" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
+      <c r="G1" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
       <c r="Y1" s="0"/>
       <c r="Z1" s="0"/>
       <c r="AA1" s="0"/>
@@ -11236,77 +11201,77 @@
       <c r="AMH1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="48.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="86" t="s">
+      <c r="A2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="F2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="G2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="H2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="I2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="J2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="K2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="P2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="R2" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="S2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="T2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="U2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="V2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="W2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="X2" s="30" t="s">
         <v>47</v>
-      </c>
-      <c r="V2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" s="30" t="s">
-        <v>50</v>
       </c>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
@@ -12308,20 +12273,20 @@
       <c r="AMH2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="33" t="n">
         <v>3582910078913</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F3" s="41" t="n">
         <v>1</v>
@@ -13380,20 +13345,20 @@
       <c r="AMH3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" s="33" t="n">
         <v>3582910077305</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F4" s="41" t="n">
         <v>1</v>
@@ -14452,20 +14417,20 @@
       <c r="AMH4" s="0"/>
     </row>
     <row r="5" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="33" t="n">
         <v>8901083060122</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5" s="41" t="n">
         <v>1</v>
@@ -14528,20 +14493,20 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="33" t="n">
         <v>8901083060139</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F6" s="41" t="n">
         <v>1</v>
@@ -14602,20 +14567,20 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="33" t="n">
         <v>8901083060115</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" s="41" t="n">
         <v>1</v>
@@ -14676,20 +14641,20 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="33" t="n">
         <v>3582910072218</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F8" s="41" t="n">
         <v>1</v>
@@ -14750,20 +14715,20 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" s="33" t="n">
         <v>3582910075660</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F9" s="41" t="n">
         <v>1</v>
@@ -14824,20 +14789,20 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="85" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="33" t="n">
         <v>9006968001890</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10" s="41" t="n">
         <v>1</v>
@@ -14898,20 +14863,20 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="33" t="n">
         <v>9006968004082</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F11" s="41" t="n">
         <v>1</v>
@@ -14972,20 +14937,20 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" s="33" t="n">
         <v>9006968011882</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12" s="41" t="n">
         <v>1</v>
@@ -15046,20 +15011,20 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" s="33" t="n">
         <v>9006968011479</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F13" s="41" t="n">
         <v>1</v>
@@ -15120,20 +15085,20 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" s="33" t="n">
         <v>9006968010793</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F14" s="41" t="n">
         <v>1</v>
@@ -15194,20 +15159,20 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="85" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C15" s="33" t="n">
         <v>3582910070252</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F15" s="41" t="n">
         <v>1</v>
@@ -15268,20 +15233,20 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="85" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" s="33" t="n">
         <v>3582910026723</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F16" s="41" t="n">
         <v>1</v>
@@ -15342,20 +15307,20 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="85" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C17" s="33" t="n">
         <v>3582910071259</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F17" s="41" t="n">
         <v>1</v>
@@ -15416,20 +15381,20 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C18" s="33" t="n">
         <v>7896070607590</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F18" s="41" t="n">
         <v>1</v>
@@ -15490,20 +15455,20 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C19" s="33" t="n">
         <v>7896070607606</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F19" s="41" t="n">
         <v>1</v>
@@ -15564,20 +15529,20 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C20" s="33" t="n">
         <v>5997086103280</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F20" s="41" t="n">
         <v>1</v>
@@ -15638,20 +15603,20 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C21" s="33" t="n">
         <v>3582910060758</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F21" s="41" t="n">
         <v>1</v>
@@ -15712,20 +15677,20 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C22" s="33" t="n">
         <v>5997086105055</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F22" s="41" t="n">
         <v>1</v>
@@ -15786,20 +15751,20 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="89" t="n">
+        <v>81</v>
+      </c>
+      <c r="C23" s="86" t="n">
         <v>3582910062172</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F23" s="41" t="n">
         <v>1</v>
@@ -15860,20 +15825,20 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="90" t="n">
+        <v>82</v>
+      </c>
+      <c r="C24" s="87" t="n">
         <v>3582910082682</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F24" s="41" t="n">
         <v>1</v>
@@ -15934,20 +15899,20 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25" s="33" t="n">
         <v>9006968004532</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F25" s="41" t="n">
         <v>1</v>
@@ -16008,20 +15973,20 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="88" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C26" s="33" t="n">
         <v>8594739055209</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F26" s="41" t="n">
         <v>1</v>
@@ -16082,20 +16047,20 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C27" s="33" t="n">
         <v>8594739055421</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F27" s="41" t="n">
         <v>1</v>
@@ -16156,20 +16121,20 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="94" t="n">
+      <c r="A28" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="91" t="n">
         <v>8594739055421</v>
       </c>
-      <c r="D28" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="95" t="s">
-        <v>91</v>
+      <c r="D28" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="92" t="s">
+        <v>88</v>
       </c>
       <c r="F28" s="41" t="n">
         <v>1</v>
@@ -16239,20 +16204,20 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="94" t="n">
+      <c r="A29" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="91" t="n">
         <v>3582910070252</v>
       </c>
-      <c r="D29" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="95" t="s">
-        <v>73</v>
+      <c r="D29" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="92" t="s">
+        <v>70</v>
       </c>
       <c r="F29" s="41" t="n">
         <v>1</v>
@@ -16322,20 +16287,20 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="94" t="n">
+      <c r="A30" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="91" t="n">
         <v>3582910077305</v>
       </c>
-      <c r="D30" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="95" t="s">
-        <v>53</v>
+      <c r="D30" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="92" t="s">
+        <v>50</v>
       </c>
       <c r="F30" s="41" t="n">
         <v>1</v>
@@ -16405,20 +16370,20 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="94" t="n">
+      <c r="A31" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="91" t="n">
         <v>3582910041870</v>
       </c>
-      <c r="D31" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="95" t="s">
-        <v>81</v>
+      <c r="D31" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="92" t="s">
+        <v>78</v>
       </c>
       <c r="F31" s="41" t="n">
         <v>1</v>
@@ -16488,7 +16453,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G26"/>
+  <autoFilter ref="A2:H31"/>
   <mergeCells count="1">
     <mergeCell ref="G1:X1"/>
   </mergeCells>

--- a/Projects/SANOFIRU/Data/Template.xlsx
+++ b/Projects/SANOFIRU/Data/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Private\svetar\Sanofi templates\SANOFI\Russia\data updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD0EEE38-9894-49F4-B22B-0451ED18FBAD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8959FDE2-4C13-4DAB-BFAA-0EF8986F78E8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="5940" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Primary&amp;Secondary_POSM" sheetId="5" r:id="rId5"/>
     <sheet name="Primary&amp;Secondary_Facings" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -612,7 +612,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="124">
   <si>
     <t>KPI Name</t>
   </si>
@@ -849,9 +849,6 @@
   </si>
   <si>
     <t>MAGNE B6 FORTE #30</t>
-  </si>
-  <si>
-    <t>MAGNE B6 TABS 48MG/5MG BLIST #100</t>
   </si>
   <si>
     <t>NO-SPA FORTE 80MG TAB BL1X24 M36 RU</t>
@@ -2232,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AK24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2948,13 +2945,13 @@
         <v>79</v>
       </c>
       <c r="C8" s="56">
-        <v>3582910094968</v>
+        <v>3582910062172</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F8" s="61">
         <v>1</v>
@@ -2993,16 +2990,16 @@
         <v>1</v>
       </c>
       <c r="R8" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="61">
         <v>0</v>
@@ -3058,17 +3055,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="56">
+        <v>3582910060758</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="56">
-        <v>3582910062172</v>
-      </c>
-      <c r="D9" s="55" t="s">
+      <c r="E9" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="55" t="s">
-        <v>82</v>
-      </c>
       <c r="F9" s="61">
         <v>1</v>
       </c>
@@ -3118,52 +3115,52 @@
         <v>1</v>
       </c>
       <c r="V9" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -3173,110 +3170,110 @@
       <c r="B10" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="56">
-        <v>3582910060758</v>
-      </c>
-      <c r="D10" s="55" t="s">
+      <c r="C10" s="58">
+        <v>5997086105055</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="61">
-        <v>1</v>
-      </c>
-      <c r="G10" s="61">
-        <v>1</v>
-      </c>
-      <c r="H10" s="61">
-        <v>1</v>
-      </c>
-      <c r="I10" s="61">
-        <v>1</v>
-      </c>
-      <c r="J10" s="60">
-        <v>1</v>
-      </c>
-      <c r="K10" s="60">
-        <v>1</v>
-      </c>
-      <c r="L10" s="60">
-        <v>1</v>
-      </c>
-      <c r="M10" s="60">
-        <v>1</v>
-      </c>
-      <c r="N10" s="61">
-        <v>1</v>
-      </c>
-      <c r="O10" s="61">
-        <v>1</v>
-      </c>
-      <c r="P10" s="61">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="61">
-        <v>1</v>
-      </c>
-      <c r="R10" s="60">
-        <v>1</v>
-      </c>
-      <c r="S10" s="60">
-        <v>1</v>
-      </c>
-      <c r="T10" s="60">
-        <v>1</v>
-      </c>
-      <c r="U10" s="60">
-        <v>1</v>
-      </c>
-      <c r="V10" s="61">
-        <v>1</v>
-      </c>
-      <c r="W10" s="61">
-        <v>1</v>
-      </c>
-      <c r="X10" s="61">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="61">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="60">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="60">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="60">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="60">
+      <c r="F10" s="68">
+        <v>1</v>
+      </c>
+      <c r="G10" s="68">
+        <v>1</v>
+      </c>
+      <c r="H10" s="68">
+        <v>1</v>
+      </c>
+      <c r="I10" s="68">
+        <v>1</v>
+      </c>
+      <c r="J10" s="69">
+        <v>1</v>
+      </c>
+      <c r="K10" s="69">
+        <v>1</v>
+      </c>
+      <c r="L10" s="69">
+        <v>1</v>
+      </c>
+      <c r="M10" s="69">
+        <v>1</v>
+      </c>
+      <c r="N10" s="68">
+        <v>1</v>
+      </c>
+      <c r="O10" s="68">
+        <v>1</v>
+      </c>
+      <c r="P10" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="68">
+        <v>1</v>
+      </c>
+      <c r="R10" s="69">
+        <v>1</v>
+      </c>
+      <c r="S10" s="69">
+        <v>1</v>
+      </c>
+      <c r="T10" s="69">
+        <v>1</v>
+      </c>
+      <c r="U10" s="69">
+        <v>1</v>
+      </c>
+      <c r="V10" s="68">
+        <v>1</v>
+      </c>
+      <c r="W10" s="68">
+        <v>1</v>
+      </c>
+      <c r="X10" s="68">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="69">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="69">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="69">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="69">
         <v>1</v>
       </c>
       <c r="AD10" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -3287,14 +3284,14 @@
         <v>84</v>
       </c>
       <c r="C11" s="58">
-        <v>5997086105055</v>
+        <v>5997086103280</v>
       </c>
       <c r="D11" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="59" t="s">
-        <v>82</v>
-      </c>
       <c r="F11" s="68">
         <v>1</v>
       </c>
@@ -3368,16 +3365,16 @@
         <v>1</v>
       </c>
       <c r="AD11" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" s="60">
         <v>0</v>
@@ -3400,13 +3397,13 @@
         <v>85</v>
       </c>
       <c r="C12" s="58">
-        <v>5997086103280</v>
+        <v>9006968004082</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>123</v>
       </c>
       <c r="F12" s="68">
         <v>1</v>
@@ -3481,16 +3478,16 @@
         <v>1</v>
       </c>
       <c r="AD12" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="60">
         <v>0</v>
@@ -3510,16 +3507,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="58">
+        <v>9006968011882</v>
+      </c>
+      <c r="D13" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="58">
-        <v>9006968004082</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>87</v>
-      </c>
       <c r="E13" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="68">
         <v>1</v>
@@ -3582,28 +3579,28 @@
         <v>1</v>
       </c>
       <c r="Z13" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="60">
         <v>0</v>
@@ -3625,98 +3622,98 @@
       <c r="B14" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="58">
-        <v>9006968011882</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>87</v>
+      <c r="C14" s="56">
+        <v>9006968011479</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>86</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="68">
-        <v>1</v>
-      </c>
-      <c r="G14" s="68">
-        <v>1</v>
-      </c>
-      <c r="H14" s="68">
-        <v>1</v>
-      </c>
-      <c r="I14" s="68">
-        <v>1</v>
-      </c>
-      <c r="J14" s="69">
-        <v>1</v>
-      </c>
-      <c r="K14" s="69">
-        <v>1</v>
-      </c>
-      <c r="L14" s="69">
-        <v>1</v>
-      </c>
-      <c r="M14" s="69">
-        <v>1</v>
-      </c>
-      <c r="N14" s="68">
-        <v>1</v>
-      </c>
-      <c r="O14" s="68">
-        <v>1</v>
-      </c>
-      <c r="P14" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="68">
-        <v>1</v>
-      </c>
-      <c r="R14" s="69">
-        <v>1</v>
-      </c>
-      <c r="S14" s="69">
-        <v>1</v>
-      </c>
-      <c r="T14" s="69">
-        <v>1</v>
-      </c>
-      <c r="U14" s="69">
-        <v>1</v>
-      </c>
-      <c r="V14" s="68">
-        <v>1</v>
-      </c>
-      <c r="W14" s="68">
-        <v>1</v>
-      </c>
-      <c r="X14" s="68">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="68">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="69">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="69">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="69">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="F14" s="61">
+        <v>1</v>
+      </c>
+      <c r="G14" s="61">
+        <v>1</v>
+      </c>
+      <c r="H14" s="61">
+        <v>1</v>
+      </c>
+      <c r="I14" s="61">
+        <v>1</v>
+      </c>
+      <c r="J14" s="60">
+        <v>1</v>
+      </c>
+      <c r="K14" s="60">
+        <v>1</v>
+      </c>
+      <c r="L14" s="60">
+        <v>1</v>
+      </c>
+      <c r="M14" s="60">
+        <v>1</v>
+      </c>
+      <c r="N14" s="61">
+        <v>1</v>
+      </c>
+      <c r="O14" s="61">
+        <v>1</v>
+      </c>
+      <c r="P14" s="61">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="61">
+        <v>1</v>
+      </c>
+      <c r="R14" s="60">
+        <v>1</v>
+      </c>
+      <c r="S14" s="60">
+        <v>1</v>
+      </c>
+      <c r="T14" s="60">
+        <v>1</v>
+      </c>
+      <c r="U14" s="60">
+        <v>1</v>
+      </c>
+      <c r="V14" s="61">
+        <v>1</v>
+      </c>
+      <c r="W14" s="61">
+        <v>1</v>
+      </c>
+      <c r="X14" s="61">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="61">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="60">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="60">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="60">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="60">
+        <v>1</v>
       </c>
       <c r="AD14" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="60">
         <v>0</v>
@@ -3739,13 +3736,13 @@
         <v>89</v>
       </c>
       <c r="C15" s="56">
-        <v>9006968011479</v>
+        <v>9006968010793</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15" s="61">
         <v>1</v>
@@ -3796,28 +3793,28 @@
         <v>1</v>
       </c>
       <c r="V15" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="61">
         <v>0</v>
@@ -3852,13 +3849,13 @@
         <v>90</v>
       </c>
       <c r="C16" s="56">
-        <v>9006968010793</v>
+        <v>8594739055209</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="78" t="s">
-        <v>124</v>
+        <v>91</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>92</v>
       </c>
       <c r="F16" s="61">
         <v>1</v>
@@ -3909,28 +3906,28 @@
         <v>1</v>
       </c>
       <c r="V16" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="61">
         <v>0</v>
@@ -3962,17 +3959,17 @@
         <v>5</v>
       </c>
       <c r="B17" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="56">
+        <v>8594739055421</v>
+      </c>
+      <c r="D17" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="56">
-        <v>8594739055209</v>
-      </c>
-      <c r="D17" s="55" t="s">
+      <c r="E17" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="55" t="s">
-        <v>93</v>
-      </c>
       <c r="F17" s="61">
         <v>1</v>
       </c>
@@ -3986,64 +3983,64 @@
         <v>1</v>
       </c>
       <c r="J17" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="61">
         <v>0</v>
@@ -4078,13 +4075,13 @@
         <v>94</v>
       </c>
       <c r="C18" s="56">
-        <v>8594739055421</v>
+        <v>8901083060122</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>122</v>
       </c>
       <c r="F18" s="61">
         <v>1</v>
@@ -4099,64 +4096,64 @@
         <v>1</v>
       </c>
       <c r="J18" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="61">
         <v>0</v>
@@ -4188,16 +4185,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="56">
+        <v>8901083060139</v>
+      </c>
+      <c r="D19" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="56">
-        <v>8901083060122</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>96</v>
-      </c>
       <c r="E19" s="78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19" s="61">
         <v>1</v>
@@ -4304,13 +4301,13 @@
         <v>97</v>
       </c>
       <c r="C20" s="56">
-        <v>8901083060139</v>
+        <v>7896070607606</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="78" t="s">
-        <v>123</v>
+        <v>98</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>76</v>
       </c>
       <c r="F20" s="61">
         <v>1</v>
@@ -4349,40 +4346,40 @@
         <v>1</v>
       </c>
       <c r="R20" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="61">
         <v>0</v>
@@ -4414,13 +4411,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="56">
+        <v>7896070607590</v>
+      </c>
+      <c r="D21" s="55" t="s">
         <v>98</v>
-      </c>
-      <c r="C21" s="56">
-        <v>7896070607606</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>99</v>
       </c>
       <c r="E21" s="55" t="s">
         <v>76</v>
@@ -4530,13 +4527,13 @@
         <v>100</v>
       </c>
       <c r="C22" s="56">
-        <v>7896070607590</v>
+        <v>3582910072218</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>76</v>
+        <v>101</v>
+      </c>
+      <c r="E22" s="78" t="s">
+        <v>122</v>
       </c>
       <c r="F22" s="61">
         <v>1</v>
@@ -4551,28 +4548,28 @@
         <v>1</v>
       </c>
       <c r="J22" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="60">
         <v>0</v>
@@ -4640,16 +4637,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C23" s="56">
-        <v>3582910072218</v>
+        <v>9006968001890</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E23" s="78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23" s="61">
         <v>1</v>
@@ -4664,52 +4661,52 @@
         <v>1</v>
       </c>
       <c r="J23" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="60">
         <v>0</v>
@@ -4753,16 +4750,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="56">
+        <v>9006968008066</v>
+      </c>
+      <c r="D24" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="56">
-        <v>9006968001890</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>104</v>
-      </c>
       <c r="E24" s="78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F24" s="61">
         <v>1</v>
@@ -4777,52 +4774,52 @@
         <v>1</v>
       </c>
       <c r="J24" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="60">
         <v>0</v>
@@ -4858,119 +4855,6 @@
         <v>0</v>
       </c>
       <c r="AK24" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="56">
-        <v>9006968008066</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="61">
-        <v>1</v>
-      </c>
-      <c r="G25" s="61">
-        <v>1</v>
-      </c>
-      <c r="H25" s="61">
-        <v>1</v>
-      </c>
-      <c r="I25" s="61">
-        <v>1</v>
-      </c>
-      <c r="J25" s="60">
-        <v>0</v>
-      </c>
-      <c r="K25" s="60">
-        <v>0</v>
-      </c>
-      <c r="L25" s="60">
-        <v>0</v>
-      </c>
-      <c r="M25" s="60">
-        <v>0</v>
-      </c>
-      <c r="N25" s="61">
-        <v>0</v>
-      </c>
-      <c r="O25" s="61">
-        <v>0</v>
-      </c>
-      <c r="P25" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="61">
-        <v>0</v>
-      </c>
-      <c r="R25" s="60">
-        <v>0</v>
-      </c>
-      <c r="S25" s="60">
-        <v>0</v>
-      </c>
-      <c r="T25" s="60">
-        <v>0</v>
-      </c>
-      <c r="U25" s="60">
-        <v>0</v>
-      </c>
-      <c r="V25" s="61">
-        <v>0</v>
-      </c>
-      <c r="W25" s="61">
-        <v>0</v>
-      </c>
-      <c r="X25" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="61">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="60">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="60">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="60">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="61">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="61">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="61">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="61">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="60">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="60">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="60">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="60">
         <v>0</v>
       </c>
     </row>
@@ -5794,13 +5678,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="66" t="s">
         <v>76</v>
@@ -5875,13 +5759,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>113</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>114</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>72</v>
@@ -5956,16 +5840,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="64" t="s">
-        <v>116</v>
-      </c>
       <c r="E5" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" s="72">
         <v>1</v>
@@ -6037,13 +5921,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="64" t="s">
         <v>117</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>118</v>
       </c>
       <c r="E6" s="64" t="s">
         <v>76</v>
@@ -6118,16 +6002,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="64" t="s">
-        <v>120</v>
-      </c>
       <c r="E7" s="64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="72">
         <v>1</v>
@@ -6199,16 +6083,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="64" t="s">
-        <v>122</v>
-      </c>
       <c r="E8" s="64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="72">
         <v>1</v>
@@ -6306,10 +6190,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AK29"/>
+  <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7021,13 +6905,13 @@
         <v>79</v>
       </c>
       <c r="C8" s="77">
-        <v>3582910094968</v>
+        <v>3582910062172</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F8" s="32">
         <v>1</v>
@@ -7066,16 +6950,16 @@
         <v>1</v>
       </c>
       <c r="R8" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="32">
         <v>0</v>
@@ -7131,28 +7015,28 @@
         <v>2</v>
       </c>
       <c r="B9" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="77">
+        <v>3582910060758</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="77">
-        <v>3582910062172</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="E9" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>82</v>
-      </c>
       <c r="F9" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="32">
         <v>1</v>
@@ -7191,52 +7075,52 @@
         <v>1</v>
       </c>
       <c r="V9" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
@@ -7247,25 +7131,25 @@
         <v>83</v>
       </c>
       <c r="C10" s="77">
-        <v>3582910060758</v>
+        <v>5997086105055</v>
       </c>
       <c r="D10" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>82</v>
-      </c>
       <c r="F10" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="32">
         <v>1</v>
@@ -7328,28 +7212,28 @@
         <v>1</v>
       </c>
       <c r="AD10" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
@@ -7360,14 +7244,14 @@
         <v>84</v>
       </c>
       <c r="C11" s="77">
-        <v>5997086105055</v>
+        <v>5997086103280</v>
       </c>
       <c r="D11" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>82</v>
-      </c>
       <c r="F11" s="32">
         <v>1</v>
       </c>
@@ -7441,16 +7325,16 @@
         <v>1</v>
       </c>
       <c r="AD11" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" s="32">
         <v>0</v>
@@ -7473,25 +7357,25 @@
         <v>85</v>
       </c>
       <c r="C12" s="77">
-        <v>5997086103280</v>
+        <v>9006968004082</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>123</v>
       </c>
       <c r="F12" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="32">
         <v>1</v>
@@ -7554,16 +7438,16 @@
         <v>1</v>
       </c>
       <c r="AD12" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="32">
         <v>0</v>
@@ -7583,28 +7467,28 @@
         <v>2</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="77">
+        <v>9006968011882</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="77">
-        <v>9006968004082</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>87</v>
-      </c>
       <c r="E13" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="32">
         <v>1</v>
@@ -7655,28 +7539,28 @@
         <v>1</v>
       </c>
       <c r="Z13" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="32">
         <v>0</v>
@@ -7699,13 +7583,13 @@
         <v>88</v>
       </c>
       <c r="C14" s="77">
-        <v>9006968011882</v>
+        <v>9006968011479</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" s="32">
         <v>1</v>
@@ -7768,28 +7652,28 @@
         <v>1</v>
       </c>
       <c r="Z14" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="32">
         <v>0</v>
@@ -7812,13 +7696,13 @@
         <v>89</v>
       </c>
       <c r="C15" s="77">
-        <v>9006968011479</v>
+        <v>9006968010793</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15" s="32">
         <v>1</v>
@@ -7869,28 +7753,28 @@
         <v>1</v>
       </c>
       <c r="V15" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="32">
         <v>0</v>
@@ -7925,25 +7809,25 @@
         <v>90</v>
       </c>
       <c r="C16" s="77">
-        <v>9006968010793</v>
+        <v>8594739055209</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="78" t="s">
-        <v>124</v>
+        <v>91</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="F16" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="32">
         <v>1</v>
@@ -7982,28 +7866,28 @@
         <v>1</v>
       </c>
       <c r="V16" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="32">
         <v>0</v>
@@ -8035,88 +7919,88 @@
         <v>2</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="77">
+        <v>8594739055421</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="77">
-        <v>8594739055209</v>
-      </c>
-      <c r="D17" s="33" t="s">
+      <c r="E17" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>93</v>
-      </c>
       <c r="F17" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="32">
         <v>0</v>
@@ -8151,85 +8035,85 @@
         <v>94</v>
       </c>
       <c r="C18" s="77">
-        <v>8594739055421</v>
+        <v>8901083060122</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>122</v>
       </c>
       <c r="F18" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="32">
         <v>0</v>
@@ -8261,28 +8145,28 @@
         <v>2</v>
       </c>
       <c r="B19" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="77">
+        <v>8901083060139</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="77">
-        <v>8901083060122</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>96</v>
-      </c>
       <c r="E19" s="78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="32">
         <v>1</v>
@@ -8377,13 +8261,13 @@
         <v>97</v>
       </c>
       <c r="C20" s="77">
-        <v>8901083060139</v>
+        <v>7896070607606</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="78" t="s">
-        <v>123</v>
+        <v>98</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="F20" s="32">
         <v>1</v>
@@ -8422,40 +8306,40 @@
         <v>1</v>
       </c>
       <c r="R20" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="32">
         <v>0</v>
@@ -8487,13 +8371,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="77">
+        <v>7896070607590</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>98</v>
-      </c>
-      <c r="C21" s="77">
-        <v>7896070607606</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>99</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>76</v>
@@ -8603,13 +8487,13 @@
         <v>100</v>
       </c>
       <c r="C22" s="77">
-        <v>7896070607590</v>
+        <v>3582910072218</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>76</v>
+        <v>101</v>
+      </c>
+      <c r="E22" s="78" t="s">
+        <v>122</v>
       </c>
       <c r="F22" s="32">
         <v>1</v>
@@ -8624,28 +8508,28 @@
         <v>1</v>
       </c>
       <c r="J22" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="32">
         <v>0</v>
@@ -8713,16 +8597,16 @@
         <v>2</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C23" s="77">
-        <v>3582910072218</v>
+        <v>9006968001890</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E23" s="78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23" s="32">
         <v>1</v>
@@ -8737,52 +8621,52 @@
         <v>1</v>
       </c>
       <c r="J23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="32">
         <v>0</v>
@@ -8826,16 +8710,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="77">
+        <v>9006968008066</v>
+      </c>
+      <c r="D24" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="77">
-        <v>9006968001890</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>104</v>
-      </c>
       <c r="E24" s="78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F24" s="32">
         <v>1</v>
@@ -8850,52 +8734,52 @@
         <v>1</v>
       </c>
       <c r="J24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="32">
         <v>0</v>
@@ -8934,114 +8818,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="77">
-        <v>9006968008066</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>104</v>
+    <row r="25" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="79">
+        <v>3582910060758</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>80</v>
       </c>
       <c r="E25" s="78" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="F25" s="32">
         <v>1</v>
       </c>
       <c r="G25" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="32">
         <v>1</v>
       </c>
       <c r="I25" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="32">
         <v>0</v>
       </c>
       <c r="L25" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="32">
         <v>0</v>
       </c>
       <c r="N25" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="32">
         <v>0</v>
       </c>
       <c r="P25" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="32">
         <v>0</v>
       </c>
       <c r="R25" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="32">
         <v>0</v>
       </c>
       <c r="T25" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="32">
         <v>0</v>
       </c>
       <c r="V25" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="32">
         <v>0</v>
       </c>
       <c r="X25" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="32">
         <v>0</v>
       </c>
       <c r="Z25" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="32">
         <v>0</v>
       </c>
       <c r="AB25" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="32">
         <v>0</v>
       </c>
       <c r="AD25" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="32">
         <v>0</v>
       </c>
       <c r="AF25" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" s="32">
         <v>0</v>
       </c>
       <c r="AH25" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25" s="32">
         <v>0</v>
       </c>
       <c r="AJ25" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25" s="32">
         <v>0</v>
@@ -9052,16 +8936,16 @@
         <v>35</v>
       </c>
       <c r="B26" s="78" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C26" s="79">
-        <v>3582910060758</v>
+        <v>9006968011479</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E26" s="78" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="F26" s="32">
         <v>1</v>
@@ -9165,16 +9049,16 @@
         <v>35</v>
       </c>
       <c r="B27" s="78" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C27" s="79">
-        <v>9006968011479</v>
+        <v>7896070607606</v>
       </c>
       <c r="D27" s="78" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E27" s="78" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="F27" s="32">
         <v>1</v>
@@ -9278,16 +9162,16 @@
         <v>35</v>
       </c>
       <c r="B28" s="78" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C28" s="79">
-        <v>7896070607606</v>
+        <v>8901083060122</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E28" s="78" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="F28" s="32">
         <v>1</v>
@@ -9383,119 +9267,6 @@
         <v>1</v>
       </c>
       <c r="AK28" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="79">
-        <v>8901083060122</v>
-      </c>
-      <c r="D29" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="32">
-        <v>1</v>
-      </c>
-      <c r="G29" s="32">
-        <v>0</v>
-      </c>
-      <c r="H29" s="32">
-        <v>1</v>
-      </c>
-      <c r="I29" s="32">
-        <v>0</v>
-      </c>
-      <c r="J29" s="32">
-        <v>1</v>
-      </c>
-      <c r="K29" s="32">
-        <v>0</v>
-      </c>
-      <c r="L29" s="32">
-        <v>1</v>
-      </c>
-      <c r="M29" s="32">
-        <v>0</v>
-      </c>
-      <c r="N29" s="32">
-        <v>1</v>
-      </c>
-      <c r="O29" s="32">
-        <v>0</v>
-      </c>
-      <c r="P29" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="32">
-        <v>0</v>
-      </c>
-      <c r="R29" s="32">
-        <v>1</v>
-      </c>
-      <c r="S29" s="32">
-        <v>0</v>
-      </c>
-      <c r="T29" s="32">
-        <v>1</v>
-      </c>
-      <c r="U29" s="32">
-        <v>0</v>
-      </c>
-      <c r="V29" s="32">
-        <v>1</v>
-      </c>
-      <c r="W29" s="32">
-        <v>0</v>
-      </c>
-      <c r="X29" s="32">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="32">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="32">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="32">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="32">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="32">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="32">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="32">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="32">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="32">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="32">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="32">
         <v>0</v>
       </c>
     </row>

--- a/Projects/SANOFIRU/Data/Template.xlsx
+++ b/Projects/SANOFIRU/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="125">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -1000,7 +1000,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1022,13 +1022,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -1277,7 +1270,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1301,25 +1294,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1363,159 +1352,151 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1523,7 +1504,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1555,76 +1536,75 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="24" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="25" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1702,13 +1682,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1966,16 +1946,16 @@
   </sheetPr>
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM25" activeCellId="0" sqref="AM25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="13" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="13" width="11.5708502024291"/>
@@ -4904,26 +4884,26 @@
   </sheetPr>
   <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM2" activeCellId="0" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="31" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="31" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="31" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="32" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="31" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="31" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="31" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="15" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
@@ -5049,165 +5029,165 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5229,28 +5209,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM10" activeCellId="0" sqref="AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="40" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="40" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="37" min="8" style="40" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="41" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="39" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="39" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="37" min="8" style="39" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="40" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
@@ -5286,7 +5266,7 @@
       <c r="AJ1" s="0"/>
       <c r="AK1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -5398,293 +5378,299 @@
       <c r="AK2" s="19" t="s">
         <v>66</v>
       </c>
+      <c r="AL2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM2" s="19" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="46"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="46"/>
-      <c r="AK7" s="46"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="46"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="46"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5708,23 +5694,23 @@
   </sheetPr>
   <dimension ref="A1:AM11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q19" activeCellId="0" sqref="Q19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM2" activeCellId="0" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="47" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="47" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="39" min="8" style="47" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="49" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="31" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="31" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="39" min="8" style="31" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="47" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="49" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="47" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -5766,19 +5752,19 @@
       <c r="AK1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="48" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="19" t="s">
@@ -5885,523 +5871,523 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
+      <c r="F3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
+      <c r="F4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="57" t="s">
         <v>115</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="60"/>
-      <c r="AM5" s="60"/>
+      <c r="F5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="60"/>
+      <c r="F6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="58"/>
+      <c r="AK6" s="58"/>
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="58"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="60"/>
-      <c r="AL7" s="60"/>
-      <c r="AM7" s="60"/>
+      <c r="F7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="58"/>
+      <c r="AK7" s="58"/>
+      <c r="AL7" s="58"/>
+      <c r="AM7" s="58"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="60"/>
-      <c r="AG8" s="60"/>
-      <c r="AH8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="60"/>
-      <c r="AM8" s="60"/>
+      <c r="F8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="58"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="58"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="51"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="0"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="51"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="0"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="64"/>
+      <c r="C11" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6426,31 +6412,31 @@
   <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="topRight" activeCell="AI1" activeCellId="0" sqref="AI1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="AM2" activeCellId="0" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="65" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="65" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="65" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="65" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="65" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="65" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="37" min="8" style="65" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="66" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="63" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="63" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="63" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="63" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="63" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="63" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="37" min="8" style="63" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="64" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
       <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
@@ -6489,19 +6475,19 @@
       <c r="AM1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="68" t="s">
+      <c r="A2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="48" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="19" t="s">
@@ -6608,2631 +6594,2631 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="67" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="70" t="n">
+      <c r="C3" s="68" t="n">
         <v>3582910077305</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="72" t="n">
+      <c r="F3" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="72" t="n">
+      <c r="G3" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="72" t="n">
+      <c r="H3" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="72" t="n">
+      <c r="I3" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="72" t="n">
+      <c r="J3" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="72" t="n">
+      <c r="K3" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="72" t="n">
+      <c r="L3" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="M3" s="72" t="n">
+      <c r="M3" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="N3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="72" t="n">
+      <c r="N3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="67" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="70" t="n">
+      <c r="C4" s="68" t="n">
         <v>3582910078913</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="72" t="n">
+      <c r="F4" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="72" t="n">
+      <c r="G4" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="72" t="n">
+      <c r="H4" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="I4" s="72" t="n">
+      <c r="I4" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="72" t="n">
+      <c r="J4" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="K4" s="72" t="n">
+      <c r="K4" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="72" t="n">
+      <c r="L4" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="M4" s="72" t="n">
+      <c r="M4" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="N4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="72" t="n">
+      <c r="N4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="73" t="n">
+      <c r="C5" s="71" t="n">
         <v>3582910026723</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="72" t="n">
+      <c r="F5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="73" t="n">
+      <c r="C6" s="71" t="n">
         <v>3582910070252</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="72" t="n">
+      <c r="F6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="73" t="n">
+      <c r="C7" s="71" t="n">
         <v>3582910071259</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="72" t="n">
+      <c r="F7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="73" t="n">
+      <c r="C8" s="71" t="n">
         <v>3582910062172</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="72" t="n">
+      <c r="F8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="73" t="n">
+      <c r="C9" s="71" t="n">
         <v>3582910060758</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="72" t="n">
+      <c r="F9" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="72" t="n">
+      <c r="G9" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="72" t="n">
+      <c r="H9" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="72" t="n">
+      <c r="I9" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL9" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="72" t="n">
+      <c r="J9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="73" t="n">
+      <c r="C10" s="71" t="n">
         <v>5997086105055</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="72" t="n">
+      <c r="F10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="73" t="n">
+      <c r="C11" s="71" t="n">
         <v>5997086103280</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="72" t="n">
+      <c r="F11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="73" t="n">
+      <c r="C12" s="71" t="n">
         <v>9006968004082</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="63" t="s">
         <v>86</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="72" t="n">
+      <c r="F12" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="72" t="n">
+      <c r="G12" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="72" t="n">
+      <c r="H12" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="I12" s="72" t="n">
+      <c r="I12" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="72" t="n">
+      <c r="J12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="73" t="n">
+      <c r="C13" s="71" t="n">
         <v>9006968011882</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="63" t="s">
         <v>86</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="72" t="n">
+      <c r="F13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="73" t="n">
+      <c r="C14" s="71" t="n">
         <v>9006968011479</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="63" t="s">
         <v>86</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="72" t="n">
+      <c r="F14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="73" t="n">
+      <c r="C15" s="71" t="n">
         <v>9006968010793</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="63" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="72" t="n">
+      <c r="F15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="73" t="n">
+      <c r="C16" s="71" t="n">
         <v>8594739055209</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="72" t="n">
+      <c r="F16" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="72" t="n">
+      <c r="G16" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="72" t="n">
+      <c r="H16" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="72" t="n">
+      <c r="I16" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="72" t="n">
+      <c r="J16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="73" t="n">
+      <c r="C17" s="71" t="n">
         <v>8594739055421</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="72" t="n">
+      <c r="F17" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="73" t="n">
+      <c r="C18" s="71" t="n">
         <v>8901083060122</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="63" t="s">
         <v>96</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="72" t="n">
+      <c r="F18" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="72" t="n">
+      <c r="G18" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="H18" s="72" t="n">
+      <c r="H18" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="I18" s="72" t="n">
+      <c r="I18" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="J18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="72" t="n">
+      <c r="J18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="73" t="n">
+      <c r="C19" s="71" t="n">
         <v>8901083060139</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="63" t="s">
         <v>96</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="72" t="n">
+      <c r="F19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="73" t="n">
+      <c r="C20" s="71" t="n">
         <v>7896070607606</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="72" t="n">
+      <c r="F20" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="73" t="n">
+      <c r="C21" s="71" t="n">
         <v>7896070607590</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="72" t="n">
+      <c r="F21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="73" t="n">
+      <c r="C22" s="71" t="n">
         <v>3582910072218</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="63" t="s">
         <v>103</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM22" s="72" t="n">
+      <c r="F22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="73" t="n">
+      <c r="C23" s="71" t="n">
         <v>9006968001890</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="63" t="s">
         <v>105</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM23" s="72" t="n">
+      <c r="F23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="73" t="n">
+      <c r="C24" s="71" t="n">
         <v>9006968008066</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="63" t="s">
         <v>105</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM24" s="72" t="n">
+      <c r="F24" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="72" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="75" t="n">
+      <c r="C25" s="73" t="n">
         <v>3582910060758</v>
       </c>
       <c r="D25" s="30" t="s">
@@ -9241,117 +9227,117 @@
       <c r="E25" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="72" t="n">
+      <c r="F25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="72" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="75" t="n">
+      <c r="C26" s="73" t="n">
         <v>9006968011479</v>
       </c>
       <c r="D26" s="30" t="s">
@@ -9360,117 +9346,117 @@
       <c r="E26" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="72" t="n">
+      <c r="F26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="72" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="75" t="n">
+      <c r="C27" s="73" t="n">
         <v>7896070607606</v>
       </c>
       <c r="D27" s="30" t="s">
@@ -9479,117 +9465,117 @@
       <c r="E27" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="72" t="n">
+      <c r="F27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="72" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="75" t="n">
+      <c r="C28" s="73" t="n">
         <v>8901083060122</v>
       </c>
       <c r="D28" s="30" t="s">
@@ -9598,106 +9584,106 @@
       <c r="E28" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="S28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="W28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="72" t="n">
+      <c r="F28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="70" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Projects/SANOFIRU/Data/Template.xlsx
+++ b/Projects/SANOFIRU/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MSL" sheetId="1" state="visible" r:id="rId2"/>
@@ -1353,7 +1353,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1491,26 +1491,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1712,11 +1692,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="13" min="7" style="2" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="3" width="8.89068825910931"/>
@@ -2707,13 +2687,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2977,11 +2957,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="29" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="29" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="29" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="29" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="29" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="29" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="3" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2994,6 +2974,13 @@
       <c r="F1" s="31" t="s">
         <v>0</v>
       </c>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
@@ -3053,18 +3040,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="13" min="7" style="32" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="33" width="8.89068825910931"/>
   </cols>
@@ -3126,111 +3113,6 @@
       <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3251,20 +3133,20 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="29" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="29" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="29" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="13" min="7" style="29" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="41" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="36" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,19 +3167,19 @@
       <c r="M1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -3326,269 +3208,269 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="47" t="n">
+      <c r="F3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="47" t="n">
+      <c r="F4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="46" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="47" t="n">
+      <c r="F5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="47" t="n">
+      <c r="F6" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="47" t="n">
+      <c r="F7" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="47" t="n">
+      <c r="F8" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="0"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="0"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="55"/>
+      <c r="C11" s="50"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3619,21 +3501,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="56" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="56" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="57" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="57" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="57" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="6" style="56" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="58" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="51" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="51" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="6" style="51" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="53" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3646,19 +3528,19 @@
       <c r="M1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -3687,19 +3569,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="56" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="62" t="n">
+      <c r="C3" s="57" t="n">
         <v>3582910077305</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="58" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="12" t="n">
@@ -3728,19 +3610,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="56" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="62" t="n">
+      <c r="C4" s="57" t="n">
         <v>3582910078913</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="58" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="12" t="n">
@@ -3769,19 +3651,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="64" t="n">
+      <c r="C5" s="59" t="n">
         <v>3582910026723</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="52" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="12" t="n">
@@ -3810,19 +3692,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="64" t="n">
+      <c r="C6" s="59" t="n">
         <v>3582910070252</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="52" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="12" t="n">
@@ -3851,19 +3733,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="64" t="n">
+      <c r="C7" s="59" t="n">
         <v>3582910071259</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="52" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="12" t="n">
@@ -3892,19 +3774,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="64" t="n">
+      <c r="C8" s="59" t="n">
         <v>3582910062172</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="52" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="12" t="n">
@@ -3933,19 +3815,19 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="64" t="n">
+      <c r="C9" s="59" t="n">
         <v>3582910060758</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="52" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="12" t="n">
@@ -3974,19 +3856,19 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="64" t="n">
+      <c r="C10" s="59" t="n">
         <v>5997086105055</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="52" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="12" t="n">
@@ -4015,19 +3897,19 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="64" t="n">
+      <c r="C11" s="59" t="n">
         <v>5997086103280</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="52" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="12" t="n">
@@ -4056,19 +3938,19 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="64" t="n">
+      <c r="C12" s="59" t="n">
         <v>9006968004082</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="60" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="12" t="n">
@@ -4097,19 +3979,19 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="64" t="n">
+      <c r="C13" s="59" t="n">
         <v>9006968011882</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="60" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="12" t="n">
@@ -4138,19 +4020,19 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="64" t="n">
+      <c r="C14" s="59" t="n">
         <v>9006968011479</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="60" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="12" t="n">
@@ -4179,19 +4061,19 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="64" t="n">
+      <c r="C15" s="59" t="n">
         <v>9006968010793</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="60" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="12" t="n">
@@ -4220,19 +4102,19 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="64" t="n">
+      <c r="C16" s="59" t="n">
         <v>8594739055209</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="52" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="12" t="n">
@@ -4261,19 +4143,19 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="64" t="n">
+      <c r="C17" s="59" t="n">
         <v>8594739055421</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="52" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="12" t="n">
@@ -4302,19 +4184,19 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="64" t="n">
+      <c r="C18" s="59" t="n">
         <v>8901083060122</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="60" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="12" t="n">
@@ -4343,19 +4225,19 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="64" t="n">
+      <c r="C19" s="59" t="n">
         <v>8901083060139</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="60" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="12" t="n">
@@ -4384,19 +4266,19 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="64" t="n">
+      <c r="C20" s="59" t="n">
         <v>7896070607606</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="52" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="12" t="n">
@@ -4425,19 +4307,19 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="64" t="n">
+      <c r="C21" s="59" t="n">
         <v>7896070607590</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="52" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="12" t="n">
@@ -4466,19 +4348,19 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="64" t="n">
+      <c r="C22" s="59" t="n">
         <v>3582910072218</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="60" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="12" t="n">
@@ -4507,19 +4389,19 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="64" t="n">
+      <c r="C23" s="59" t="n">
         <v>9006968001890</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="60" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="12" t="n">
@@ -4548,19 +4430,19 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="64" t="n">
+      <c r="C24" s="59" t="n">
         <v>9006968008066</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="60" t="s">
         <v>42</v>
       </c>
       <c r="F24" s="12" t="n">
@@ -4589,19 +4471,19 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="67" t="n">
+      <c r="C25" s="62" t="n">
         <v>3582910062172</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="60" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="12" t="n">
@@ -4630,19 +4512,19 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="67" t="n">
+      <c r="C26" s="62" t="n">
         <v>9006968011479</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="60" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="12" t="n">
@@ -4671,19 +4553,19 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="67" t="n">
+      <c r="C27" s="62" t="n">
         <v>7896070607606</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="60" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="12" t="n">
@@ -4712,19 +4594,19 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="67" t="n">
+      <c r="C28" s="62" t="n">
         <v>8901083060122</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" s="60" t="s">
         <v>42</v>
       </c>
       <c r="F28" s="12" t="n">

--- a/Projects/SANOFIRU/Data/Template.xlsx
+++ b/Projects/SANOFIRU/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -704,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -719,7 +719,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -739,7 +739,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="105">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -1020,7 +1020,40 @@
     <t xml:space="preserve">SKUs</t>
   </si>
   <si>
-    <t xml:space="preserve">MAGNE B6 FORTE #30</t>
+    <t xml:space="preserve">D-Sun primary POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU-ST-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essentiale primary POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU-ST-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasolvan primary POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU-ST-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magne B6 primary POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU-ST-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No-spa primary POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU-ST-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zodac primary POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU-ST-06</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1365,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1489,6 +1522,58 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1501,40 +1586,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1623,14 +1680,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2591093117409"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6882591093117"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9514170040486"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4453441295547"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.2024291497976"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4453441295547"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1619433198381"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8097165991903"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,22 +1942,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.4453441295547"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="45.6599190283401"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.2591093117409"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.7327935222672"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="24.2388663967611"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="11.8744939271255"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="14" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="15" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="27.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="46.7692307692308"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.753036437247"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="12.1174089068826"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="14" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="15" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3683,6 +3740,9 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3708,12 +3768,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="26.4453441295547"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="29" width="22.4008097165992"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="32.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="29" width="22.4008097165992"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="29" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="15" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="27.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="29" width="22.8947368421053"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="33.663967611336"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="29" width="22.8947368421053"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="29" width="18.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="15" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3799,12 +3859,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="21.668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="39.5425101214575"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="21.668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="13.4696356275304"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="32" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="33" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="22.1578947368421"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="40.3967611336032"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="22.1578947368421"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="32" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="33" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3884,20 +3944,20 @@
   </sheetPr>
   <dimension ref="A1:U65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="30.1133603238866"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="34.1578947368421"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="29" width="23.2591093117409"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="27.9068825910931"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="19.9514170040486"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="29" width="11.6315789473684"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="29" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="36" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="34.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="29" width="23.753036437247"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="28.5222672064777"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="20.4453441295547"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="29" width="11.8744939271255"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="29" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="36" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,7 +3985,7 @@
       <c r="T1" s="0"/>
       <c r="U1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
@@ -3990,1956 +4050,435 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="40" t="n">
-        <v>3582910077305</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>94</v>
       </c>
       <c r="D3" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="40" t="n">
-        <v>3582910078913</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="24" t="n">
+      <c r="E4" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="43" t="n">
-        <v>3582910026723</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="24" t="n">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="43" t="n">
-        <v>3582910070252</v>
-      </c>
-      <c r="D6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="24" t="n">
+      <c r="F6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="43" t="n">
-        <v>3582910071259</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="43" t="n">
-        <v>3582910062172</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="43" t="n">
-        <v>3582910060758</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="43" t="n">
-        <v>5997086105055</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="43" t="n">
-        <v>5997086103280</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="43" t="n">
-        <v>9006968004082</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="43" t="n">
-        <v>9006968011882</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="43" t="n">
-        <v>9006968011479</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="43" t="n">
-        <v>9006968010793</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="43" t="n">
-        <v>8594739055209</v>
-      </c>
-      <c r="D16" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E8" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U16" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="43" t="n">
-        <v>8594739055421</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="43" t="n">
-        <v>8901083060122</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U18" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="43" t="n">
-        <v>8901083060139</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="43" t="n">
-        <v>7896070607606</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="43" t="n">
-        <v>7896070607590</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="43" t="n">
-        <v>3582910072218</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="43" t="n">
-        <v>9006968001890</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="43" t="n">
-        <v>9006968008066</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="43" t="n">
-        <v>3664798003420</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G25" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="43" t="n">
-        <v>8901083060115</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="43" t="n">
-        <v>3664798000832</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="43" t="n">
-        <v>8594739055414</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="43" t="n">
-        <v>3582910062172</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U29" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="43" t="n">
-        <v>8594739055421</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="43" t="n">
-        <v>3582910071259</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U31" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="43" t="n">
-        <v>8901083060122</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U32" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="F8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048530" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5965,33 +4504,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="L42" activeCellId="0" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="33.0485829959514"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="45.6599190283401"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="13" min="6" style="42" width="13.4696356275304"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="46" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="33.7935222672065"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="46.7692307692308"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="49" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="49" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="13" min="6" style="48" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="50" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
@@ -6003,7 +4542,7 @@
       <c r="L1" s="0"/>
       <c r="M1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
@@ -6023,41 +4562,65 @@
         <v>35</v>
       </c>
       <c r="G2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="I2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="K2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="M2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="O2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="S2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="U2" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="40" t="n">
+      <c r="C3" s="53" t="n">
         <v>3582910077305</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="54" t="s">
         <v>53</v>
       </c>
       <c r="F3" s="24" t="n">
@@ -6067,10 +4630,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="24" t="n">
         <v>1</v>
@@ -6084,21 +4647,45 @@
       <c r="M3" s="24" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
+      <c r="N3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="40" t="n">
+      <c r="C4" s="53" t="n">
         <v>3582910078913</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="54" t="s">
         <v>53</v>
       </c>
       <c r="F4" s="24" t="n">
@@ -6108,10 +4695,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="24" t="n">
         <v>1</v>
@@ -6125,21 +4712,45 @@
       <c r="M4" s="24" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
+      <c r="N4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="43" t="n">
+      <c r="C5" s="55" t="n">
         <v>3582910026723</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="49" t="s">
         <v>57</v>
       </c>
       <c r="F5" s="24" t="n">
@@ -6155,32 +4766,56 @@
         <v>1</v>
       </c>
       <c r="J5" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="43" t="n">
+      <c r="C6" s="55" t="n">
         <v>3582910070252</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="49" t="s">
         <v>57</v>
       </c>
       <c r="F6" s="24" t="n">
@@ -6207,21 +4842,45 @@
       <c r="M6" s="24" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
+      <c r="N6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="43" t="n">
+      <c r="B7" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="55" t="n">
         <v>3582910071259</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="49" t="s">
         <v>57</v>
       </c>
       <c r="F7" s="24" t="n">
@@ -6248,21 +4907,45 @@
       <c r="M7" s="24" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
+      <c r="N7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="43" t="n">
+      <c r="C8" s="55" t="n">
         <v>3582910062172</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="49" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="24" t="n">
@@ -6272,10 +4955,10 @@
         <v>2</v>
       </c>
       <c r="H8" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="24" t="n">
         <v>1</v>
@@ -6289,21 +4972,45 @@
       <c r="M8" s="24" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
+      <c r="N8" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="43" t="n">
+      <c r="C9" s="55" t="n">
         <v>3582910060758</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="49" t="s">
         <v>62</v>
       </c>
       <c r="F9" s="24" t="n">
@@ -6330,21 +5037,45 @@
       <c r="M9" s="24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
+      <c r="N9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="43" t="n">
+      <c r="C10" s="55" t="n">
         <v>5997086105055</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="49" t="s">
         <v>62</v>
       </c>
       <c r="F10" s="24" t="n">
@@ -6371,21 +5102,45 @@
       <c r="M10" s="24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
+      <c r="N10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="43" t="n">
+      <c r="C11" s="55" t="n">
         <v>5997086103280</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="49" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="24" t="n">
@@ -6412,21 +5167,45 @@
       <c r="M11" s="24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
+      <c r="N11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="43" t="n">
+      <c r="C12" s="55" t="n">
         <v>9006968004082</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="49" t="s">
         <v>68</v>
       </c>
       <c r="F12" s="24" t="n">
@@ -6453,21 +5232,45 @@
       <c r="M12" s="24" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
+      <c r="N12" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="43" t="n">
+      <c r="C13" s="55" t="n">
         <v>9006968011882</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="49" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="24" t="n">
@@ -6494,21 +5297,45 @@
       <c r="M13" s="24" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
+      <c r="N13" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="43" t="n">
+      <c r="C14" s="55" t="n">
         <v>9006968011479</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="49" t="s">
         <v>68</v>
       </c>
       <c r="F14" s="24" t="n">
@@ -6535,21 +5362,45 @@
       <c r="M14" s="24" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
+      <c r="N14" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="43" t="n">
+      <c r="C15" s="55" t="n">
         <v>9006968010793</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="49" t="s">
         <v>68</v>
       </c>
       <c r="F15" s="24" t="n">
@@ -6565,32 +5416,56 @@
         <v>1</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="43" t="n">
+      <c r="C16" s="55" t="n">
         <v>8594739055209</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="49" t="s">
         <v>74</v>
       </c>
       <c r="F16" s="24" t="n">
@@ -6617,21 +5492,45 @@
       <c r="M16" s="24" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39" t="s">
+      <c r="N16" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="43" t="n">
+      <c r="C17" s="55" t="n">
         <v>8594739055421</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="49" t="s">
         <v>74</v>
       </c>
       <c r="F17" s="24" t="n">
@@ -6641,38 +5540,62 @@
         <v>1</v>
       </c>
       <c r="H17" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="43" t="n">
+      <c r="C18" s="55" t="n">
         <v>8901083060122</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="49" t="s">
         <v>78</v>
       </c>
       <c r="F18" s="24" t="n">
@@ -6699,21 +5622,45 @@
       <c r="M18" s="24" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39" t="s">
+      <c r="N18" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="43" t="n">
+      <c r="C19" s="55" t="n">
         <v>8901083060139</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="49" t="s">
         <v>78</v>
       </c>
       <c r="F19" s="24" t="n">
@@ -6740,21 +5687,45 @@
       <c r="M19" s="24" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39" t="s">
+      <c r="N19" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="43" t="n">
+      <c r="C20" s="55" t="n">
         <v>7896070607606</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="49" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="24" t="n">
@@ -6770,32 +5741,56 @@
         <v>1</v>
       </c>
       <c r="J20" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="43" t="n">
+      <c r="C21" s="55" t="n">
         <v>7896070607590</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="49" t="s">
         <v>57</v>
       </c>
       <c r="F21" s="24" t="n">
@@ -6811,32 +5806,56 @@
         <v>1</v>
       </c>
       <c r="J21" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="43" t="n">
+      <c r="C22" s="55" t="n">
         <v>3582910072218</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="49" t="s">
         <v>78</v>
       </c>
       <c r="F22" s="24" t="n">
@@ -6858,26 +5877,50 @@
         <v>1</v>
       </c>
       <c r="L22" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="43" t="n">
+      <c r="C23" s="55" t="n">
         <v>9006968001890</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="49" t="s">
         <v>78</v>
       </c>
       <c r="F23" s="24" t="n">
@@ -6899,26 +5942,50 @@
         <v>1</v>
       </c>
       <c r="L23" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="43" t="n">
+      <c r="C24" s="55" t="n">
         <v>9006968008066</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="49" t="s">
         <v>78</v>
       </c>
       <c r="F24" s="24" t="n">
@@ -6928,185 +5995,565 @@
         <v>1</v>
       </c>
       <c r="H24" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="55" t="n">
+        <v>3664798003420</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="55" t="n">
+        <v>8901083060115</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="55" t="n">
+        <v>3664798000832</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="55" t="n">
+        <v>8594739055414</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B29" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="50" t="n">
+      <c r="C29" s="55" t="n">
         <v>3582910062172</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D29" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E29" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="45" t="s">
+      <c r="F29" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="50" t="n">
-        <v>9006968011479</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="45" t="s">
+      <c r="B30" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="55" t="n">
+        <v>8594739055421</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="50" t="n">
-        <v>7896070607606</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="48" t="s">
+      <c r="B31" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="55" t="n">
+        <v>3582910071259</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="45" t="s">
+      <c r="F31" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B32" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="50" t="n">
+      <c r="C32" s="55" t="n">
         <v>8901083060122</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D32" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E32" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="24" t="n">
+      <c r="F32" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" s="24" t="n">
         <v>1</v>
       </c>
     </row>
